--- a/wrack_line_survey.xlsx
+++ b/wrack_line_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Downloads/drive-download-20230130T181611Z-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b3f7164a47e54db/Documents/GitHub/Wrack_monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F19D5-D4FF-B748-919C-38634557F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF2F19D5-D4FF-B748-919C-38634557F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE416FC4-113C-48CE-BC2D-5CAE02A91169}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasiveWrackSurveySNIJan2020" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="83">
   <si>
     <t>date</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>E. mencesii</t>
+  </si>
+  <si>
+    <t>Hello World</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="30" width="10.5" customWidth="1"/>
   </cols>
@@ -11796,7 +11799,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A142" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="143" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="144" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>

--- a/wrack_line_survey.xlsx
+++ b/wrack_line_survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b3f7164a47e54db/Documents/GitHub/Wrack_monitoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayla\OneDrive\Documents\GitHub\Wrack_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF2F19D5-D4FF-B748-919C-38634557F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE416FC4-113C-48CE-BC2D-5CAE02A91169}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48337B66-CAB6-492E-905F-CB2248099697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -284,7 +284,148 @@
     <t>E. mencesii</t>
   </si>
   <si>
-    <t>Hello World</t>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>JJP</t>
+  </si>
+  <si>
+    <t>RDSA</t>
+  </si>
+  <si>
+    <t>Macrocystis</t>
+  </si>
+  <si>
+    <t>J. Long</t>
+  </si>
+  <si>
+    <t>R. Desantiago</t>
+  </si>
+  <si>
+    <t>Macrosystis</t>
+  </si>
+  <si>
+    <t>33, 16.984</t>
+  </si>
+  <si>
+    <t>119, 32.154</t>
+  </si>
+  <si>
+    <t>Ric/Lostro</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>13, 16.984</t>
+  </si>
+  <si>
+    <t>Seagrass</t>
+  </si>
+  <si>
+    <t>Surfgrass</t>
+  </si>
+  <si>
+    <t>Stephano</t>
+  </si>
+  <si>
+    <t>33, 15.881</t>
+  </si>
+  <si>
+    <t>119, 29.143</t>
+  </si>
+  <si>
+    <t>33, 15.889</t>
+  </si>
+  <si>
+    <t>119, 29.160</t>
+  </si>
+  <si>
+    <t>Jess/Lostro</t>
+  </si>
+  <si>
+    <t>32, 16.258</t>
+  </si>
+  <si>
+    <t>119, 33.810</t>
+  </si>
+  <si>
+    <t>33, 16.250</t>
+  </si>
+  <si>
+    <t>119, 33.773</t>
+  </si>
+  <si>
+    <t>33, 15.310</t>
+  </si>
+  <si>
+    <t>119, 28.048</t>
+  </si>
+  <si>
+    <t>33, 15.309</t>
+  </si>
+  <si>
+    <t>119, 28.073</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>L. Strope</t>
+  </si>
+  <si>
+    <t>Horneri</t>
+  </si>
+  <si>
+    <t>33, 15.509</t>
+  </si>
+  <si>
+    <t>119, 29.027</t>
+  </si>
+  <si>
+    <t>33, 15.508</t>
+  </si>
+  <si>
+    <t>119, 29.023</t>
+  </si>
+  <si>
+    <t>33, 15.521</t>
+  </si>
+  <si>
+    <t>119, 29.083</t>
+  </si>
+  <si>
+    <t>33, 15.518</t>
+  </si>
+  <si>
+    <t>119, 29.052</t>
+  </si>
+  <si>
+    <t>33, 17.013</t>
+  </si>
+  <si>
+    <t>33, 16.599</t>
+  </si>
+  <si>
+    <t>119, 32.096</t>
+  </si>
+  <si>
+    <t>33, 16.587</t>
+  </si>
+  <si>
+    <t>119, 32.091</t>
+  </si>
+  <si>
+    <t>119, 32.060</t>
+  </si>
+  <si>
+    <t>33, 17.002</t>
+  </si>
+  <si>
+    <t>119, 32.073</t>
+  </si>
+  <si>
+    <t>Lostro</t>
   </si>
 </sst>
 </file>
@@ -296,7 +437,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +475,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -361,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -385,6 +533,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -723,7 +878,7 @@
         <v>0.67</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I141" si="0">(F2/2)*(G2/2)*(PI())</f>
+        <f t="shared" ref="I2:I256" si="0">(F2/2)*(G2/2)*(PI())</f>
         <v>0.94719018505732278</v>
       </c>
       <c r="J2" s="1">
@@ -11800,156 +11955,6384 @@
       </c>
     </row>
     <row r="142" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A142" t="s">
+      <c r="A142" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B142" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="143" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="144" spans="1:30" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
+      <c r="D142" s="15">
+        <v>1</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="15">
+        <v>5.04</v>
+      </c>
+      <c r="G142" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="H142" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="I142" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0479731925128175</v>
+      </c>
+      <c r="J142" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD142" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A143" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B143" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" s="15">
+        <v>2</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="G143" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H143" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="I143" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4129312959520093</v>
+      </c>
+      <c r="J143" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD143" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A144" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B144" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" s="15">
+        <v>3</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="G144" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="H144" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="I144" s="16">
+        <f t="shared" si="0"/>
+        <v>0.47280969436526382</v>
+      </c>
+      <c r="J144" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD144" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A145" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B145" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D145" s="15">
+        <v>4</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="G145" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="H145" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="I145" s="16">
+        <f t="shared" si="0"/>
+        <v>0.51247230161683499</v>
+      </c>
+      <c r="J145" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD145" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A146" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B146" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="15">
+        <v>5</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="G146" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="H146" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="I146" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37110063220529427</v>
+      </c>
+      <c r="J146" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD146" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A147" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B147" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="15">
+        <v>6</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="15">
+        <v>5.17</v>
+      </c>
+      <c r="G147" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="H147" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I147" s="16">
+        <f t="shared" si="0"/>
+        <v>3.8574830795265669</v>
+      </c>
+      <c r="J147" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD147" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A148" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B148" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" s="15">
+        <v>7</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="15">
+        <v>2.73</v>
+      </c>
+      <c r="G148" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="H148" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="I148" s="16">
+        <f t="shared" si="0"/>
+        <v>0.6432410958225101</v>
+      </c>
+      <c r="J148" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD148" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A149" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B149" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D149" s="15">
+        <v>8</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="15">
+        <v>1.61</v>
+      </c>
+      <c r="G149" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="H149" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="I149" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89778864057962315</v>
+      </c>
+      <c r="J149" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD149" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A150" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B150" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" s="15">
+        <v>9</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F150" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G150" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="H150" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I150" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89284063215021903</v>
+      </c>
+      <c r="J150" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD150" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A151" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B151" s="14">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="15">
+        <v>10</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="15">
+        <v>2.58</v>
+      </c>
+      <c r="G151" s="15">
+        <v>1.17</v>
+      </c>
+      <c r="H151" s="15">
+        <v>1.41</v>
+      </c>
+      <c r="I151" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3708028960315373</v>
+      </c>
+      <c r="J151" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD151" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A152" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B152" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" s="15">
+        <v>1</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="15">
+        <v>1.94</v>
+      </c>
+      <c r="G152" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="H152" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="I152" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97515035967427177</v>
+      </c>
+      <c r="J152" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD152" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A153" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B153" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="15">
+        <v>2</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="15">
+        <v>1.03</v>
+      </c>
+      <c r="G153" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="H153" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="I153" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39639045306669218</v>
+      </c>
+      <c r="J153" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD153" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A154" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B154" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="15">
+        <v>3</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G154" s="15">
+        <v>1</v>
+      </c>
+      <c r="H154" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I154" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="J154" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC154" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD154" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A155" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B155" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="15">
+        <v>4</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" s="15">
+        <v>1.02</v>
+      </c>
+      <c r="G155" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="H155" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="I155" s="16">
+        <f t="shared" si="0"/>
+        <v>0.50469685979920031</v>
+      </c>
+      <c r="J155" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD155" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A156" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B156" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" s="15">
+        <v>5</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" s="15">
+        <v>1</v>
+      </c>
+      <c r="G156" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="H156" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="I156" s="16">
+        <f t="shared" si="0"/>
+        <v>0.49480084294039239</v>
+      </c>
+      <c r="J156" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD156" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A157" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B157" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" s="15">
+        <v>6</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="G157" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="H157" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I157" s="16">
+        <f t="shared" si="0"/>
+        <v>0.74455745890078096</v>
+      </c>
+      <c r="J157" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC157" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD157" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A158" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B158" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" s="15">
+        <v>7</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158" s="15">
+        <v>2.08</v>
+      </c>
+      <c r="G158" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H158" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="I158" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5356104890746909</v>
+      </c>
+      <c r="J158" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD158" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A159" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B159" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" s="15">
+        <v>8</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="G159" s="15">
+        <v>1.41</v>
+      </c>
+      <c r="H159" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="I159" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4252309887549806</v>
+      </c>
+      <c r="J159" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD159" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A160" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B160" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" s="15">
+        <v>9</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="15">
+        <v>1.91</v>
+      </c>
+      <c r="G160" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H160" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="I160" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0500773444623883</v>
+      </c>
+      <c r="J160" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD160" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A161" s="13">
+        <v>44902</v>
+      </c>
+      <c r="B161" s="14">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="15">
+        <v>10</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G161" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="H161" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="I161" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2124976846529807</v>
+      </c>
+      <c r="J161" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A162" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B162" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="15">
+        <v>1</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F162" s="15">
+        <v>2.08</v>
+      </c>
+      <c r="G162" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="H162" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="I162" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7643184342560281</v>
+      </c>
+      <c r="J162" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A163" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B163" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="15">
+        <v>2</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F163" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="G163" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="H163" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="I163" s="16">
+        <f t="shared" si="0"/>
+        <v>3.4125550199619132</v>
+      </c>
+      <c r="J163" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A164" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B164" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" s="15">
+        <v>3</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F164" s="15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G164" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="H164" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="I164" s="16">
+        <f t="shared" si="0"/>
+        <v>0.45663049219927637</v>
+      </c>
+      <c r="J164" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A165" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B165" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D165" s="15">
+        <v>4</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165" s="15">
+        <v>2.17</v>
+      </c>
+      <c r="G165" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="H165" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I165" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2100629503464486</v>
+      </c>
+      <c r="J165" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A166" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B166" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D166" s="15">
+        <v>5</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166" s="15">
+        <v>3.98</v>
+      </c>
+      <c r="G166" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="H166" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="I166" s="16">
+        <f t="shared" si="0"/>
+        <v>6.6581343903855279</v>
+      </c>
+      <c r="J166" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A167" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B167" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="15">
+        <v>6</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F167" s="15">
+        <v>3</v>
+      </c>
+      <c r="G167" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="H167" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I167" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6728980880365647</v>
+      </c>
+      <c r="J167" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A168" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B168" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="15">
+        <v>7</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168" s="15">
+        <v>2.34</v>
+      </c>
+      <c r="G168" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="H168" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="I168" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2053980428200348</v>
+      </c>
+      <c r="J168" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A169" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B169" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" s="15">
+        <v>8</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F169" s="15">
+        <v>4.21</v>
+      </c>
+      <c r="G169" s="15">
+        <v>2.06</v>
+      </c>
+      <c r="H169" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="I169" s="16">
+        <f t="shared" si="0"/>
+        <v>6.8114441118807108</v>
+      </c>
+      <c r="J169" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A170" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B170" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D170" s="15">
+        <v>9</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F170" s="15">
+        <v>2.92</v>
+      </c>
+      <c r="G170" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H170" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I170" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1557608788933158</v>
+      </c>
+      <c r="J170" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A171" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B171" s="14">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" s="15">
+        <v>10</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F171" s="15">
+        <v>2.81</v>
+      </c>
+      <c r="G171" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H171" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="I171" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4938747882359174</v>
+      </c>
+      <c r="J171" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A172" s="13">
+        <v>44901</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" s="15">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" s="15">
+        <v>0</v>
+      </c>
+      <c r="G172" s="15">
+        <v>0</v>
+      </c>
+      <c r="H172" s="15">
+        <v>0</v>
+      </c>
+      <c r="I172" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A173" s="13">
+        <v>44901</v>
+      </c>
+      <c r="B173" s="14">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="15">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" s="15">
+        <v>0</v>
+      </c>
+      <c r="G173" s="15">
+        <v>0</v>
+      </c>
+      <c r="H173" s="15">
+        <v>0</v>
+      </c>
+      <c r="I173" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A174" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B174" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D174" s="15">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>88</v>
+      </c>
+      <c r="F174" s="15">
+        <v>3.99</v>
+      </c>
+      <c r="G174" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H174" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="I174" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9457143516384696</v>
+      </c>
+      <c r="J174" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A175" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B175" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" s="15">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="15">
+        <v>3.85</v>
+      </c>
+      <c r="G175" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H175" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="I175" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8423559533353653</v>
+      </c>
+      <c r="J175" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A176" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B176" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D176" s="15">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>88</v>
+      </c>
+      <c r="F176" s="15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G176" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="H176" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="I176" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8333549328186634</v>
+      </c>
+      <c r="J176" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A177" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B177" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D177" s="15">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" s="15">
+        <v>5.52</v>
+      </c>
+      <c r="G177" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="H177" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="I177" s="16">
+        <f t="shared" si="0"/>
+        <v>7.0666985149848793</v>
+      </c>
+      <c r="J177" s="15">
+        <v>2.07E-2</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A178" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B178" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" s="15">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" s="15">
+        <v>3.89</v>
+      </c>
+      <c r="G178" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="H178" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="I178" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8413349357229487</v>
+      </c>
+      <c r="J178" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A179" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B179" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D179" s="15">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
+        <v>88</v>
+      </c>
+      <c r="F179" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="G179" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H179" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="I179" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98960168588078479</v>
+      </c>
+      <c r="J179" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A180" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B180" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="15">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="15">
+        <v>4.66</v>
+      </c>
+      <c r="G180" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="H180" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="I180" s="16">
+        <f t="shared" si="0"/>
+        <v>12.883043153841024</v>
+      </c>
+      <c r="J180" s="15">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A181" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B181" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181" s="15">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>88</v>
+      </c>
+      <c r="F181" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="G181" s="15">
+        <v>2.09</v>
+      </c>
+      <c r="H181" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="I181" s="16">
+        <f t="shared" si="0"/>
+        <v>11.900745670879836</v>
+      </c>
+      <c r="J181" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A182" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B182" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" s="15">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>88</v>
+      </c>
+      <c r="F182" s="15">
+        <v>6.89</v>
+      </c>
+      <c r="G182" s="15">
+        <v>5.97</v>
+      </c>
+      <c r="H182" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="I182" s="16">
+        <f t="shared" si="0"/>
+        <v>32.306018274476259</v>
+      </c>
+      <c r="J182" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A183" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B183" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" s="15">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>88</v>
+      </c>
+      <c r="F183" s="15">
+        <v>5.59</v>
+      </c>
+      <c r="G183" s="15">
+        <v>5.41</v>
+      </c>
+      <c r="H183" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="I183" s="16">
+        <f t="shared" si="0"/>
+        <v>23.751932717649293</v>
+      </c>
+      <c r="J183" s="15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A184" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B184" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D184" s="15">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>88</v>
+      </c>
+      <c r="F184" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="G184" s="15">
+        <v>1.03</v>
+      </c>
+      <c r="H184" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="I184" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3833217851919257</v>
+      </c>
+      <c r="J184" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z184" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A185" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B185" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D185" s="15">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>88</v>
+      </c>
+      <c r="F185" s="15">
+        <v>3.19</v>
+      </c>
+      <c r="G185" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="H185" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="I185" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0043361129902881</v>
+      </c>
+      <c r="J185" s="15">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A186" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B186" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D186" s="15">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>88</v>
+      </c>
+      <c r="F186" s="15">
+        <v>1.39</v>
+      </c>
+      <c r="G186" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="H186" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="I186" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97161606793898314</v>
+      </c>
+      <c r="J186" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A187" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B187" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D187" s="15">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" s="15">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G187" s="15">
+        <v>2.88</v>
+      </c>
+      <c r="H187" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="I187" s="16">
+        <f t="shared" si="0"/>
+        <v>9.8394681910432311</v>
+      </c>
+      <c r="J187" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A188" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B188" s="14">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" s="15">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" s="15">
+        <v>3.55</v>
+      </c>
+      <c r="G188" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="H188" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="I188" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0186942641096941</v>
+      </c>
+      <c r="J188" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A189" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B189" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" s="15">
+        <v>1</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F189" s="17">
+        <v>2.36</v>
+      </c>
+      <c r="G189" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H189" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="I189" s="16">
+        <f t="shared" si="0"/>
+        <v>1.019446816089888</v>
+      </c>
+      <c r="J189" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z189" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA189" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC189" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD189" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A190" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B190" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190" s="15">
+        <v>2</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F190" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G190" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="H190" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="I190" s="16">
+        <f t="shared" si="0"/>
+        <v>0.64088490133231779</v>
+      </c>
+      <c r="J190" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB190" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC190" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD190" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A191" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B191" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" s="15">
+        <v>3</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F191" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="G191" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H191" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I191" s="16">
+        <f t="shared" si="0"/>
+        <v>0.50972340804494398</v>
+      </c>
+      <c r="J191" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC191" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD191" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A192" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B192" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" s="15">
+        <v>4</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F192" s="17">
+        <v>1.41</v>
+      </c>
+      <c r="G192" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="H192" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="I192" s="16">
+        <f t="shared" si="0"/>
+        <v>0.66444684623424122</v>
+      </c>
+      <c r="J192" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC192" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD192" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A193" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B193" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D193" s="15">
+        <v>5</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F193" s="17">
+        <v>5.69</v>
+      </c>
+      <c r="G193" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="H193" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="I193" s="16">
+        <f t="shared" si="0"/>
+        <v>8.5803178554844433</v>
+      </c>
+      <c r="J193" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC193" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD193" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A194" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B194" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194" s="15">
+        <v>6</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F194" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="G194" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H194" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="I194" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0000164230916022</v>
+      </c>
+      <c r="J194" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC194" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD194" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A195" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B195" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" s="15">
+        <v>7</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F195" s="17">
+        <v>1.96</v>
+      </c>
+      <c r="G195" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H195" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I195" s="16">
+        <f t="shared" si="0"/>
+        <v>0.86205302414503937</v>
+      </c>
+      <c r="J195" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC195" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD195" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A196" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B196" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" s="15">
+        <v>8</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F196" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="G196" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="H196" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I196" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8095573684677206</v>
+      </c>
+      <c r="J196" s="17">
+        <v>6.6E-3</v>
+      </c>
+      <c r="K196" s="17">
+        <v>0</v>
+      </c>
+      <c r="L196" s="17">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Y196" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC196" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD196" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A197" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B197" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197" s="15">
+        <v>9</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F197" s="17">
+        <v>1</v>
+      </c>
+      <c r="G197" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="H197" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="I197" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21205750411731106</v>
+      </c>
+      <c r="J197" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC197" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD197" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A198" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B198" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" s="15">
+        <v>10</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F198" s="17">
+        <v>3</v>
+      </c>
+      <c r="G198" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="H198" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I198" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2723450247038663</v>
+      </c>
+      <c r="J198" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC198" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD198" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A199" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B199" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" s="15">
+        <v>11</v>
+      </c>
+      <c r="E199" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F199" s="17">
+        <v>3.73</v>
+      </c>
+      <c r="G199" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="H199" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I199" s="16">
+        <f t="shared" si="0"/>
+        <v>3.4568514763775289</v>
+      </c>
+      <c r="J199" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC199" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD199" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A200" s="13">
+        <v>44692</v>
+      </c>
+      <c r="B200" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="15">
+        <v>12</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F200" s="17">
+        <v>1.59</v>
+      </c>
+      <c r="G200" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="H200" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I200" s="16">
+        <f t="shared" si="0"/>
+        <v>0.79922117107324342</v>
+      </c>
+      <c r="J200" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA200" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC200" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD200" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A201" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B201" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" s="15">
+        <v>1</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F201" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="G201" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H201" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I201" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5904312808798331</v>
+      </c>
+      <c r="J201" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA201" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB201" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC201" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD201" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A202" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B202" s="18">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" s="15">
+        <v>2</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F202" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G202" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="H202" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I202" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2714025469077892</v>
+      </c>
+      <c r="J202" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC202" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD202" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A203" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B203" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" s="15">
+        <v>3</v>
+      </c>
+      <c r="E203" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F203" s="17">
+        <v>2.02</v>
+      </c>
+      <c r="G203" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H203" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="I203" s="16">
+        <f t="shared" si="0"/>
+        <v>0.87257735953456517</v>
+      </c>
+      <c r="J203" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC203" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD203" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A204" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B204" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" s="15">
+        <v>4</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F204" s="17">
+        <v>4.45</v>
+      </c>
+      <c r="G204" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="H204" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="I204" s="16">
+        <f t="shared" si="0"/>
+        <v>3.4251213905762716</v>
+      </c>
+      <c r="J204" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC204" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD204" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A205" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B205" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" s="15">
+        <v>5</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F205" s="17">
+        <v>2.83</v>
+      </c>
+      <c r="G205" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="H205" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="I205" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0450672193082471</v>
+      </c>
+      <c r="J205" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC205" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD205" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A206" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B206" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="15">
+        <v>6</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F206" s="17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G206" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="H206" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="I206" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2902210444669593</v>
+      </c>
+      <c r="J206" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC206" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD206" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A207" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B207" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" s="15">
+        <v>7</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" s="17">
+        <v>2.89</v>
+      </c>
+      <c r="G207" s="17">
+        <v>1.49</v>
+      </c>
+      <c r="H207" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="I207" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3820030314057519</v>
+      </c>
+      <c r="J207" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC207" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD207" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A208" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B208" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" s="15">
+        <v>8</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F208" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G208" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H208" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="I208" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7537940988665022</v>
+      </c>
+      <c r="J208" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC208" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD208" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A209" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B209" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" s="15">
+        <v>9</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F209" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="G209" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="H209" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="I209" s="16">
+        <f t="shared" si="0"/>
+        <v>0.48867473726589228</v>
+      </c>
+      <c r="J209" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC209" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD209" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A210" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B210" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" s="15">
+        <v>10</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F210" s="17">
+        <v>4.32</v>
+      </c>
+      <c r="G210" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="H210" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="I210" s="16">
+        <f t="shared" si="0"/>
+        <v>4.6483004902514589</v>
+      </c>
+      <c r="J210" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC210" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD210" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A211" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B211" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" s="15">
+        <v>11</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F211" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="G211" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H211" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="I211" s="16">
+        <f t="shared" si="0"/>
+        <v>0.70371675440411374</v>
+      </c>
+      <c r="J211" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC211" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD211" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A212" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B212" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" s="15">
+        <v>12</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F212" s="17">
+        <v>5.22</v>
+      </c>
+      <c r="G212" s="17">
+        <v>1.21</v>
+      </c>
+      <c r="H212" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="I212" s="16">
+        <f t="shared" si="0"/>
+        <v>4.9607318796509627</v>
+      </c>
+      <c r="J212" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC212" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD212" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A213" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B213" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" s="15">
+        <v>13</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F213" s="17">
+        <v>3.06</v>
+      </c>
+      <c r="G213" s="17">
+        <v>1.31</v>
+      </c>
+      <c r="H213" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="I213" s="16">
+        <f t="shared" si="0"/>
+        <v>3.1483470777950116</v>
+      </c>
+      <c r="J213" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC213" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD213" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A214" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B214" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" s="15">
+        <v>14</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F214" s="17">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G214" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="H214" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I214" s="16">
+        <f t="shared" si="0"/>
+        <v>6.212499472473815</v>
+      </c>
+      <c r="J214" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC214" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD214" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A215" s="13">
+        <v>44691</v>
+      </c>
+      <c r="B215" s="14">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" s="15">
+        <v>15</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F215" s="17">
+        <v>3.15</v>
+      </c>
+      <c r="G215" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="H215" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="I215" s="16">
+        <f t="shared" si="0"/>
+        <v>0.66798113796952974</v>
+      </c>
+      <c r="J215" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC215" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD215" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A216" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B216" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D216" s="15">
+        <v>1</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F216" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="G216" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="H216" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I216" s="16">
+        <f t="shared" si="0"/>
+        <v>9.3305301811616864E-2</v>
+      </c>
+      <c r="J216" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC216" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD216" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A217" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B217" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D217" s="15">
+        <v>2</v>
+      </c>
+      <c r="E217" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" s="17">
+        <v>1</v>
+      </c>
+      <c r="G217" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H217" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="I217" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4977871437821388E-2</v>
+      </c>
+      <c r="J217" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC217" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD217" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A218" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B218" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="15">
+        <v>3</v>
+      </c>
+      <c r="E218" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F218" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="G218" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="H218" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="I218" s="16">
+        <f t="shared" si="0"/>
+        <v>0.18503980729643882</v>
+      </c>
+      <c r="J218" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC218" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD218" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A219" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B219" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D219" s="15">
+        <v>4</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F219" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="G219" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="H219" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="I219" s="16">
+        <f t="shared" si="0"/>
+        <v>0.28839820559954304</v>
+      </c>
+      <c r="J219" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC219" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD219" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A220" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B220" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D220" s="15">
+        <v>5</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F220" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="G220" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H220" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="I220" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11105530030439921</v>
+      </c>
+      <c r="J220" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC220" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD220" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A221" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B221" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221" s="15">
+        <v>6</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F221" s="17">
+        <v>1</v>
+      </c>
+      <c r="G221" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="H221" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="I221" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13351768777756623</v>
+      </c>
+      <c r="J221" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC221" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD221" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A222" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B222" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D222" s="15">
+        <v>7</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F222" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G222" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="H222" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="I222" s="16">
+        <f t="shared" si="0"/>
+        <v>0.31887165433936399</v>
+      </c>
+      <c r="J222" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC222" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD222" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A223" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B223" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223" s="15">
+        <v>8</v>
+      </c>
+      <c r="E223" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F223" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G223" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="H223" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="I223" s="16">
+        <f t="shared" si="0"/>
+        <v>0.23326325452904217</v>
+      </c>
+      <c r="J223" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC223" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD223" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A224" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B224" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" s="15">
+        <v>9</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F224" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="G224" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H224" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="I224" s="16">
+        <f t="shared" si="0"/>
+        <v>0.27732409149563902</v>
+      </c>
+      <c r="J224" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC224" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD224" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A225" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B225" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D225" s="15">
+        <v>10</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F225" s="17">
+        <v>1.42</v>
+      </c>
+      <c r="G225" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="H225" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I225" s="16">
+        <f t="shared" si="0"/>
+        <v>0.42380084896926307</v>
+      </c>
+      <c r="J225" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC225" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD225" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A226" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B226" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D226" s="15">
+        <v>11</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F226" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="G226" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="H226" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="I226" s="16">
+        <f t="shared" si="0"/>
+        <v>0.58951986144612467</v>
+      </c>
+      <c r="J226" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC226" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD226" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A227" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B227" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D227" s="15">
+        <v>12</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F227" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G227" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="H227" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="I227" s="16">
+        <f t="shared" si="0"/>
+        <v>0.2148849375055418</v>
+      </c>
+      <c r="J227" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC227" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD227" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A228" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B228" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="15">
+        <v>13</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F228" s="17">
+        <v>1</v>
+      </c>
+      <c r="G228" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="H228" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="I228" s="16">
+        <f t="shared" si="0"/>
+        <v>0.32986722862692824</v>
+      </c>
+      <c r="J228" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC228" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD228" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A229" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B229" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D229" s="15">
+        <v>14</v>
+      </c>
+      <c r="E229" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F229" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="G229" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="H229" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I229" s="16">
+        <f t="shared" si="0"/>
+        <v>0.2045176817486955</v>
+      </c>
+      <c r="J229" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC229" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD229" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A230" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B230" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D230" s="15">
+        <v>15</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F230" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="G230" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="H230" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="I230" s="16">
+        <f t="shared" si="0"/>
+        <v>0.56548667764616278</v>
+      </c>
+      <c r="J230" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC230" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD230" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A231" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B231" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D231" s="15">
+        <v>16</v>
+      </c>
+      <c r="E231" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F231" s="17">
+        <v>1.59</v>
+      </c>
+      <c r="G231" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="H231" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I231" s="16">
+        <f t="shared" si="0"/>
+        <v>0.57444021670889367</v>
+      </c>
+      <c r="J231" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC231" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD231" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A232" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B232" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" s="15">
+        <v>17</v>
+      </c>
+      <c r="E232" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F232" s="17">
+        <v>2.35</v>
+      </c>
+      <c r="G232" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="H232" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="I232" s="16">
+        <f t="shared" si="0"/>
+        <v>0.75673113043344142</v>
+      </c>
+      <c r="J232" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC232" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD232" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A233" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B233" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" s="15">
+        <v>18</v>
+      </c>
+      <c r="E233" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F233" s="17">
+        <v>1.03</v>
+      </c>
+      <c r="G233" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="H233" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I233" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37212164981771106</v>
+      </c>
+      <c r="J233" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC233" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD233" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A234" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B234" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D234" s="15">
+        <v>19</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F234" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="G234" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="H234" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="I234" s="16">
+        <f t="shared" si="0"/>
+        <v>0.4089568236810513</v>
+      </c>
+      <c r="J234" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC234" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD234" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A235" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B235" s="14">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D235" s="15">
+        <v>20</v>
+      </c>
+      <c r="E235" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F235" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="G235" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="H235" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="I235" s="16">
+        <f t="shared" si="0"/>
+        <v>0.94365589332203414</v>
+      </c>
+      <c r="J235" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC235" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD235" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A236" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B236" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D236" s="15">
+        <v>1</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F236" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="G236" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="H236" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I236" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25564710218586945</v>
+      </c>
+      <c r="J236" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC236" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD236" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A237" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B237" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" s="15">
+        <v>2</v>
+      </c>
+      <c r="E237" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F237" s="17">
+        <v>1.31</v>
+      </c>
+      <c r="G237" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="H237" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I237" s="16">
+        <f t="shared" si="0"/>
+        <v>0.19548560286962488</v>
+      </c>
+      <c r="J237" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC237" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD237" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A238" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B238" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C238" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" s="15">
+        <v>3</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F238" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G238" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H238" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I238" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22462387473167023</v>
+      </c>
+      <c r="J238" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC238" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD238" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A239" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B239" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C239" t="s">
+        <v>43</v>
+      </c>
+      <c r="D239" s="15">
+        <v>4</v>
+      </c>
+      <c r="E239" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F239" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G239" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H239" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="I239" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26389378290154264</v>
+      </c>
+      <c r="J239" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC239" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD239" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A240" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B240" s="19">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C240" t="s">
+        <v>43</v>
+      </c>
+      <c r="D240" s="15">
+        <v>5</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F240" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="G240" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="H240" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="I240" s="16">
+        <f t="shared" si="0"/>
+        <v>0.15904312808798329</v>
+      </c>
+      <c r="J240" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC240" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD240" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A241" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B241" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C241" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" s="15">
+        <v>6</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F241" s="17">
+        <v>1.61</v>
+      </c>
+      <c r="G241" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="H241" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I241" s="16">
+        <f t="shared" si="0"/>
+        <v>0.64489043196564477</v>
+      </c>
+      <c r="J241" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC241" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD241" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A242" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B242" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C242" t="s">
+        <v>43</v>
+      </c>
+      <c r="D242" s="15">
+        <v>7</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F242" s="17">
+        <v>1.03</v>
+      </c>
+      <c r="G242" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="H242" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="I242" s="16">
+        <f t="shared" si="0"/>
+        <v>0.36403204873471728</v>
+      </c>
+      <c r="J242" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC242" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD242" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A243" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B243" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C243" t="s">
+        <v>43</v>
+      </c>
+      <c r="D243" s="15">
+        <v>8</v>
+      </c>
+      <c r="E243" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F243" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="G243" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H243" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I243" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26546457922833755</v>
+      </c>
+      <c r="J243" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC243" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD243" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A244" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B244" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C244" t="s">
+        <v>43</v>
+      </c>
+      <c r="D244" s="15">
+        <v>9</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F244" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G244" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="H244" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I244" s="16">
+        <f t="shared" si="0"/>
+        <v>0.32515483964654357</v>
+      </c>
+      <c r="J244" s="17">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="K244" s="17">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC244" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD244" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A245" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B245" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C245" t="s">
+        <v>43</v>
+      </c>
+      <c r="D245" s="15">
+        <v>10</v>
+      </c>
+      <c r="E245" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F245" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="G245" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="H245" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I245" s="16">
+        <f t="shared" si="0"/>
+        <v>0.17247343668207962</v>
+      </c>
+      <c r="J245" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC245" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD245" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A246" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B246" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C246" t="s">
+        <v>43</v>
+      </c>
+      <c r="D246" s="15">
+        <v>11</v>
+      </c>
+      <c r="E246" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F246" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="G246" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H246" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I246" s="16">
+        <f t="shared" si="0"/>
+        <v>0.27991590543485062</v>
+      </c>
+      <c r="J246" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC246" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD246" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A247" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B247" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C247" t="s">
+        <v>43</v>
+      </c>
+      <c r="D247" s="15">
+        <v>12</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F247" s="17">
+        <v>1.33</v>
+      </c>
+      <c r="G247" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="H247" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="I247" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22980750261009339</v>
+      </c>
+      <c r="J247" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC247" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD247" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A248" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B248" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C248" t="s">
+        <v>43</v>
+      </c>
+      <c r="D248" s="15">
+        <v>13</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F248" s="17">
+        <v>1.85</v>
+      </c>
+      <c r="G248" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="H248" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="I248" s="16">
+        <f t="shared" si="0"/>
+        <v>0.6247842389826701</v>
+      </c>
+      <c r="J248" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC248" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD248" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A249" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B249" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C249" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" s="15">
+        <v>14</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F249" s="17">
+        <v>1</v>
+      </c>
+      <c r="G249" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H249" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I249" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37699111843077515</v>
+      </c>
+      <c r="J249" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC249" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD249" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A250" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B250" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C250" t="s">
+        <v>43</v>
+      </c>
+      <c r="D250" s="15">
+        <v>15</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F250" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="G250" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="H250" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="I250" s="16">
+        <f t="shared" si="0"/>
+        <v>0.23954643983622173</v>
+      </c>
+      <c r="J250" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC250" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD250" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A251" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B251" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C251" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="15">
+        <v>16</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F251" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="G251" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="H251" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="I251" s="16">
+        <f t="shared" si="0"/>
+        <v>0.92519903648219404</v>
+      </c>
+      <c r="J251" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC251" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD251" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A252" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B252" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C252" t="s">
+        <v>43</v>
+      </c>
+      <c r="D252" s="15">
+        <v>17</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F252" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G252" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="H252" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="I252" s="16">
+        <f t="shared" si="0"/>
+        <v>0.4834911093874692</v>
+      </c>
+      <c r="J252" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC252" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD252" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A253" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B253" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C253" t="s">
+        <v>43</v>
+      </c>
+      <c r="D253" s="15">
+        <v>18</v>
+      </c>
+      <c r="E253" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F253" s="17">
+        <v>1.06</v>
+      </c>
+      <c r="G253" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H253" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I253" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21645573383233677</v>
+      </c>
+      <c r="J253" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC253" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD253" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A254" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B254" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C254" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="15">
+        <v>19</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F254" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="G254" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="H254" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I254" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53407075111026492</v>
+      </c>
+      <c r="J254" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC254" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD254" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A255" s="13">
+        <v>44635</v>
+      </c>
+      <c r="B255" s="14">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C255" t="s">
+        <v>43</v>
+      </c>
+      <c r="D255" s="15">
+        <v>20</v>
+      </c>
+      <c r="E255" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F255" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="G255" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="H255" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I255" s="16">
+        <f t="shared" si="0"/>
+        <v>0.29640926686619701</v>
+      </c>
+      <c r="J255" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC255" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD255" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A256" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B256" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C256" t="s">
+        <v>53</v>
+      </c>
+      <c r="D256" s="15">
+        <v>1</v>
+      </c>
+      <c r="E256" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G256" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="H256" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="I256" s="16">
+        <f t="shared" si="0"/>
+        <v>0.36285395148962113</v>
+      </c>
+      <c r="J256" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC256" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD256" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A257" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B257" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D257" s="15">
+        <v>2</v>
+      </c>
+      <c r="E257" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F257">
+        <v>1.51</v>
+      </c>
+      <c r="G257" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H257" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I257" s="16">
+        <f t="shared" ref="I257:I275" si="7">(F257/2)*(G257/2)*(PI())</f>
+        <v>0.52181853976126458</v>
+      </c>
+      <c r="J257" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC257" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD257" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A258" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B258" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D258" s="15">
+        <v>3</v>
+      </c>
+      <c r="E258" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F258">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G258" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="H258" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="I258" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2148849375055418</v>
+      </c>
+      <c r="J258" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC258" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD258" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A259" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B259" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D259" s="15">
+        <v>4</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F259">
+        <v>1.47</v>
+      </c>
+      <c r="G259" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="H259" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I259" s="16">
+        <f t="shared" si="7"/>
+        <v>0.68117582711460689</v>
+      </c>
+      <c r="J259" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC259" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD259" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A260" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B260" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D260" s="15">
+        <v>5</v>
+      </c>
+      <c r="E260" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F260">
+        <v>1.65</v>
+      </c>
+      <c r="G260" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H260" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="I260" s="16">
+        <f t="shared" si="7"/>
+        <v>0.71274883328318428</v>
+      </c>
+      <c r="J260" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB260" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC260" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD260" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A261" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B261" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D261" s="15">
+        <v>6</v>
+      </c>
+      <c r="E261" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F261">
+        <v>3.62</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1.91</v>
+      </c>
+      <c r="H261" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="I261" s="16">
+        <f t="shared" si="7"/>
+        <v>5.4303999813626369</v>
+      </c>
+      <c r="J261" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC261" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD261" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A262" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B262" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D262" s="15">
+        <v>7</v>
+      </c>
+      <c r="E262" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F262">
+        <v>1.49</v>
+      </c>
+      <c r="G262" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="H262" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="I262" s="16">
+        <f t="shared" si="7"/>
+        <v>1.2287554266353078</v>
+      </c>
+      <c r="J262" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC262" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD262" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A263" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B263" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D263" s="15">
+        <v>8</v>
+      </c>
+      <c r="E263" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263">
+        <v>1.29</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H263" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I263" s="16">
+        <f t="shared" si="7"/>
+        <v>0.81053090462616662</v>
+      </c>
+      <c r="J263" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC263" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD263" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A264" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B264" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D264" s="15">
+        <v>9</v>
+      </c>
+      <c r="E264" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F264">
+        <v>2.38</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="H264" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="I264" s="16">
+        <f t="shared" si="7"/>
+        <v>1.5140905793976007</v>
+      </c>
+      <c r="J264" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC264" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD264" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A265" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B265" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D265" s="15">
+        <v>10</v>
+      </c>
+      <c r="E265" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F265">
+        <v>1.51</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="H265" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I265" s="16">
+        <f t="shared" si="7"/>
+        <v>0.60483512563237496</v>
+      </c>
+      <c r="J265" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC265" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD265" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A266" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B266" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D266" s="15">
+        <v>11</v>
+      </c>
+      <c r="E266" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266">
+        <v>1.22</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H266" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="I266" s="16">
+        <f t="shared" si="7"/>
+        <v>0.62282074357417649</v>
+      </c>
+      <c r="J266" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC266" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD266" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A267" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B267" s="14">
+        <v>0.46875</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D267" s="15">
+        <v>12</v>
+      </c>
+      <c r="E267" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F267">
+        <v>1.45</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H267" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="I267" s="16">
+        <f t="shared" si="7"/>
+        <v>0.74023776900209504</v>
+      </c>
+      <c r="J267" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC267" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD267" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A268" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B268" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D268" s="15">
+        <v>13</v>
+      </c>
+      <c r="E268" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F268">
+        <v>4.05</v>
+      </c>
+      <c r="G268" s="17">
+        <v>3.19</v>
+      </c>
+      <c r="H268" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="I268" s="16">
+        <f t="shared" si="7"/>
+        <v>10.146951572013332</v>
+      </c>
+      <c r="J268" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC268" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD268" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A269" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B269" s="19">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D269" s="15">
+        <v>14</v>
+      </c>
+      <c r="E269" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F269">
+        <v>2.46</v>
+      </c>
+      <c r="G269" s="17">
+        <v>1.21</v>
+      </c>
+      <c r="H269" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="I269" s="16">
+        <f t="shared" si="7"/>
+        <v>2.3378161731688443</v>
+      </c>
+      <c r="J269" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC269" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD269" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A270" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B270" s="18">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D270" s="15">
+        <v>15</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F270">
+        <v>2.17</v>
+      </c>
+      <c r="G270" s="17">
+        <v>2.04</v>
+      </c>
+      <c r="H270" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="I270" s="16">
+        <f t="shared" si="7"/>
+        <v>3.4768005897278242</v>
+      </c>
+      <c r="J270" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC270" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD270" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A271" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B271" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C271" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D271" s="15">
+        <v>16</v>
+      </c>
+      <c r="E271" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F271">
+        <v>1.51</v>
+      </c>
+      <c r="G271" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="H271" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I271" s="16">
+        <f t="shared" si="7"/>
+        <v>0.85388488324570577</v>
+      </c>
+      <c r="J271" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC271" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD271" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A272" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B272" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D272" s="15">
+        <v>17</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F272">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="H272" s="17">
+        <v>0.38</v>
+      </c>
+      <c r="I272" s="16">
+        <f t="shared" si="7"/>
+        <v>4.0349830644543907</v>
+      </c>
+      <c r="J272" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC272" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD272" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A273" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B273" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" s="15">
+        <v>18</v>
+      </c>
+      <c r="E273" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F273">
+        <v>1.59</v>
+      </c>
+      <c r="G273" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="H273" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="I273" s="16">
+        <f t="shared" si="7"/>
+        <v>1.0614656178316513</v>
+      </c>
+      <c r="J273" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC273" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD273" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A274" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B274" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D274" s="15">
+        <v>19</v>
+      </c>
+      <c r="E274" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F274">
+        <v>1.76</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H274" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I274" s="16">
+        <f t="shared" si="7"/>
+        <v>0.76026542216873005</v>
+      </c>
+      <c r="J274" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC274" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD274" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A275" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B275" s="14">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" s="15">
+        <v>20</v>
+      </c>
+      <c r="E275" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F275">
+        <v>3.19</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H275" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="I275" s="16">
+        <f t="shared" si="7"/>
+        <v>3.7581302118567903</v>
+      </c>
+      <c r="J275" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC275" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD275" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="277" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="278" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="279" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="280" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="281" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="282" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="283" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="284" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="285" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="286" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="287" spans="1:30" ht="15.75" customHeight="1"/>
+    <row r="288" spans="1:30" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
     <row r="291" ht="15.75" customHeight="1"/>
@@ -12666,6 +19049,195 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D615FCCE5379DC419566D473180B1A14" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="baa524c24dfada9524605323a536501f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd881d51-fac7-4211-8a41-163211e7956f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19ab2ce52a029a7f504d79a76202e00b" ns3:_="">
+    <xsd:import namespace="dd881d51-fac7-4211-8a41-163211e7956f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dd881d51-fac7-4211-8a41-163211e7956f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862A3663-8BA7-4B41-AC42-671415024BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5936F303-DFF0-4E1C-9418-608ECE61AA7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd881d51-fac7-4211-8a41-163211e7956f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C23A54C3-363F-420E-A1CA-BA9F0643FE13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd881d51-fac7-4211-8a41-163211e7956f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/wrack_line_survey.xlsx
+++ b/wrack_line_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayla\OneDrive\Documents\GitHub\Wrack_monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Wrack_monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48337B66-CAB6-492E-905F-CB2248099697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94E3151-E472-7747-9F61-1D72BC683DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasiveWrackSurveySNIJan2020" sheetId="1" r:id="rId1"/>
@@ -448,6 +448,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,11 +460,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -474,6 +477,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -509,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -535,8 +539,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -757,11 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H200" sqref="H200"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="30" width="10.5" customWidth="1"/>
   </cols>
@@ -1076,11 +1079,11 @@
         <v>2.12057504117311E-3</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="5"/>
+        <f>V4/I4</f>
         <v>6.3775510204081628E-4</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" si="6"/>
+        <f>W4*100</f>
         <v>6.3775510204081634E-2</v>
       </c>
     </row>
@@ -11961,35 +11964,35 @@
       <c r="B142" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" t="s">
         <v>82</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D142">
         <v>1</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="E142" t="s">
         <v>32</v>
       </c>
-      <c r="F142" s="15">
+      <c r="F142">
         <v>5.04</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G142">
         <v>0.77</v>
       </c>
-      <c r="H142" s="15">
+      <c r="H142">
         <v>0.22</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="15">
         <f t="shared" si="0"/>
         <v>3.0479731925128175</v>
       </c>
-      <c r="J142" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC142" s="15" t="s">
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="s">
         <v>84</v>
       </c>
-      <c r="AD142" s="15" t="s">
+      <c r="AD142" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12000,35 +12003,35 @@
       <c r="B143" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" t="s">
         <v>82</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143">
         <v>2</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="15">
+      <c r="F143">
         <v>2.57</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143">
         <v>0.7</v>
       </c>
-      <c r="H143" s="15">
+      <c r="H143">
         <v>0.3</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="15">
         <f t="shared" si="0"/>
         <v>1.4129312959520093</v>
       </c>
-      <c r="J143" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC143" s="15" t="s">
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="s">
         <v>84</v>
       </c>
-      <c r="AD143" s="15" t="s">
+      <c r="AD143" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12039,35 +12042,35 @@
       <c r="B144" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144">
         <v>3</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="E144" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="15">
+      <c r="F144">
         <v>1.4</v>
       </c>
-      <c r="G144" s="15">
+      <c r="G144">
         <v>0.43</v>
       </c>
-      <c r="H144" s="15">
+      <c r="H144">
         <v>0.31</v>
       </c>
-      <c r="I144" s="16">
+      <c r="I144" s="15">
         <f t="shared" si="0"/>
         <v>0.47280969436526382</v>
       </c>
-      <c r="J144" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC144" s="15" t="s">
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="s">
         <v>84</v>
       </c>
-      <c r="AD144" s="15" t="s">
+      <c r="AD144" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12078,35 +12081,35 @@
       <c r="B145" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" t="s">
         <v>82</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145">
         <v>4</v>
       </c>
-      <c r="E145" s="15" t="s">
+      <c r="E145" t="s">
         <v>51</v>
       </c>
-      <c r="F145" s="15">
+      <c r="F145">
         <v>1.45</v>
       </c>
-      <c r="G145" s="15">
+      <c r="G145">
         <v>0.45</v>
       </c>
-      <c r="H145" s="15">
+      <c r="H145">
         <v>0.24</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="15">
         <f t="shared" si="0"/>
         <v>0.51247230161683499</v>
       </c>
-      <c r="J145" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC145" s="15" t="s">
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="s">
         <v>84</v>
       </c>
-      <c r="AD145" s="15" t="s">
+      <c r="AD145" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12117,35 +12120,35 @@
       <c r="B146" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" t="s">
         <v>82</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146">
         <v>5</v>
       </c>
-      <c r="E146" s="15" t="s">
+      <c r="E146" t="s">
         <v>32</v>
       </c>
-      <c r="F146" s="15">
+      <c r="F146">
         <v>1.35</v>
       </c>
-      <c r="G146" s="15">
+      <c r="G146">
         <v>0.35</v>
       </c>
-      <c r="H146" s="15">
+      <c r="H146">
         <v>0.23</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="15">
         <f t="shared" si="0"/>
         <v>0.37110063220529427</v>
       </c>
-      <c r="J146" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC146" s="15" t="s">
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="s">
         <v>84</v>
       </c>
-      <c r="AD146" s="15" t="s">
+      <c r="AD146" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12156,35 +12159,35 @@
       <c r="B147" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147">
         <v>6</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E147" t="s">
         <v>32</v>
       </c>
-      <c r="F147" s="15">
+      <c r="F147">
         <v>5.17</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G147">
         <v>0.95</v>
       </c>
-      <c r="H147" s="15">
+      <c r="H147">
         <v>0.25</v>
       </c>
-      <c r="I147" s="16">
+      <c r="I147" s="15">
         <f t="shared" si="0"/>
         <v>3.8574830795265669</v>
       </c>
-      <c r="J147" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="15" t="s">
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="s">
         <v>84</v>
       </c>
-      <c r="AD147" s="15" t="s">
+      <c r="AD147" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12195,35 +12198,35 @@
       <c r="B148" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148">
         <v>7</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" t="s">
         <v>32</v>
       </c>
-      <c r="F148" s="15">
+      <c r="F148">
         <v>2.73</v>
       </c>
-      <c r="G148" s="15">
+      <c r="G148">
         <v>0.3</v>
       </c>
-      <c r="H148" s="15">
+      <c r="H148">
         <v>0.27</v>
       </c>
-      <c r="I148" s="16">
+      <c r="I148" s="15">
         <f t="shared" si="0"/>
         <v>0.6432410958225101</v>
       </c>
-      <c r="J148" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC148" s="15" t="s">
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="s">
         <v>84</v>
       </c>
-      <c r="AD148" s="15" t="s">
+      <c r="AD148" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12234,35 +12237,35 @@
       <c r="B149" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149">
         <v>8</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="15">
+      <c r="F149">
         <v>1.61</v>
       </c>
-      <c r="G149" s="15">
+      <c r="G149">
         <v>0.71</v>
       </c>
-      <c r="H149" s="15">
+      <c r="H149">
         <v>0.34</v>
       </c>
-      <c r="I149" s="16">
+      <c r="I149" s="15">
         <f t="shared" si="0"/>
         <v>0.89778864057962315</v>
       </c>
-      <c r="J149" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC149" s="15" t="s">
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="s">
         <v>84</v>
       </c>
-      <c r="AD149" s="15" t="s">
+      <c r="AD149" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12273,35 +12276,35 @@
       <c r="B150" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" t="s">
         <v>82</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150">
         <v>9</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" t="s">
         <v>51</v>
       </c>
-      <c r="F150" s="15">
+      <c r="F150">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G150" s="15">
+      <c r="G150">
         <v>0.49</v>
       </c>
-      <c r="H150" s="15">
+      <c r="H150">
         <v>0.25</v>
       </c>
-      <c r="I150" s="16">
+      <c r="I150" s="15">
         <f t="shared" si="0"/>
         <v>0.89284063215021903</v>
       </c>
-      <c r="J150" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC150" s="15" t="s">
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="s">
         <v>84</v>
       </c>
-      <c r="AD150" s="15" t="s">
+      <c r="AD150" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12312,35 +12315,35 @@
       <c r="B151" s="14">
         <v>0.40486111111111112</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C151" t="s">
         <v>82</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151">
         <v>10</v>
       </c>
-      <c r="E151" s="15" t="s">
+      <c r="E151" t="s">
         <v>32</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151">
         <v>2.58</v>
       </c>
-      <c r="G151" s="15">
+      <c r="G151">
         <v>1.17</v>
       </c>
-      <c r="H151" s="15">
+      <c r="H151">
         <v>1.41</v>
       </c>
-      <c r="I151" s="16">
+      <c r="I151" s="15">
         <f t="shared" si="0"/>
         <v>2.3708028960315373</v>
       </c>
-      <c r="J151" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC151" s="15" t="s">
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="s">
         <v>84</v>
       </c>
-      <c r="AD151" s="15" t="s">
+      <c r="AD151" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12351,35 +12354,35 @@
       <c r="B152" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" t="s">
         <v>32</v>
       </c>
-      <c r="F152" s="15">
+      <c r="F152">
         <v>1.94</v>
       </c>
-      <c r="G152" s="15">
+      <c r="G152">
         <v>0.64</v>
       </c>
-      <c r="H152" s="15">
+      <c r="H152">
         <v>0.23</v>
       </c>
-      <c r="I152" s="16">
+      <c r="I152" s="15">
         <f t="shared" si="0"/>
         <v>0.97515035967427177</v>
       </c>
-      <c r="J152" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC152" s="15" t="s">
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="s">
         <v>84</v>
       </c>
-      <c r="AD152" s="15" t="s">
+      <c r="AD152" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12390,35 +12393,35 @@
       <c r="B153" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" t="s">
         <v>63</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153">
         <v>2</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" t="s">
         <v>32</v>
       </c>
-      <c r="F153" s="15">
+      <c r="F153">
         <v>1.03</v>
       </c>
-      <c r="G153" s="15">
+      <c r="G153">
         <v>0.49</v>
       </c>
-      <c r="H153" s="15">
+      <c r="H153">
         <v>0.31</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="15">
         <f t="shared" si="0"/>
         <v>0.39639045306669218</v>
       </c>
-      <c r="J153" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC153" s="15" t="s">
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="s">
         <v>84</v>
       </c>
-      <c r="AD153" s="15" t="s">
+      <c r="AD153" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12429,35 +12432,35 @@
       <c r="B154" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C154" t="s">
         <v>63</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154">
         <v>3</v>
       </c>
-      <c r="E154" s="15" t="s">
+      <c r="E154" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="15">
+      <c r="F154">
         <v>1.5</v>
       </c>
-      <c r="G154" s="15">
+      <c r="G154">
         <v>1</v>
       </c>
-      <c r="H154" s="15">
+      <c r="H154">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I154" s="16">
+      <c r="I154" s="15">
         <f t="shared" si="0"/>
         <v>1.1780972450961724</v>
       </c>
-      <c r="J154" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC154" s="15" t="s">
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="s">
         <v>84</v>
       </c>
-      <c r="AD154" s="15" t="s">
+      <c r="AD154" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12468,35 +12471,35 @@
       <c r="B155" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" t="s">
         <v>63</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155">
         <v>4</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E155" t="s">
         <v>32</v>
       </c>
-      <c r="F155" s="15">
+      <c r="F155">
         <v>1.02</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155">
         <v>0.63</v>
       </c>
-      <c r="H155" s="15">
+      <c r="H155">
         <v>0.16</v>
       </c>
-      <c r="I155" s="16">
+      <c r="I155" s="15">
         <f t="shared" si="0"/>
         <v>0.50469685979920031</v>
       </c>
-      <c r="J155" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC155" s="15" t="s">
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="s">
         <v>84</v>
       </c>
-      <c r="AD155" s="15" t="s">
+      <c r="AD155" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12507,35 +12510,35 @@
       <c r="B156" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C156" t="s">
         <v>63</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156">
         <v>5</v>
       </c>
-      <c r="E156" s="15" t="s">
+      <c r="E156" t="s">
         <v>32</v>
       </c>
-      <c r="F156" s="15">
+      <c r="F156">
         <v>1</v>
       </c>
-      <c r="G156" s="15">
+      <c r="G156">
         <v>0.63</v>
       </c>
-      <c r="H156" s="15">
+      <c r="H156">
         <v>0.18</v>
       </c>
-      <c r="I156" s="16">
+      <c r="I156" s="15">
         <f t="shared" si="0"/>
         <v>0.49480084294039239</v>
       </c>
-      <c r="J156" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC156" s="15" t="s">
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="s">
         <v>84</v>
       </c>
-      <c r="AD156" s="15" t="s">
+      <c r="AD156" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12546,35 +12549,35 @@
       <c r="B157" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" t="s">
         <v>63</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157">
         <v>6</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" t="s">
         <v>32</v>
       </c>
-      <c r="F157" s="15">
+      <c r="F157">
         <v>1.58</v>
       </c>
-      <c r="G157" s="15">
+      <c r="G157">
         <v>0.6</v>
       </c>
-      <c r="H157" s="15">
+      <c r="H157">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I157" s="16">
+      <c r="I157" s="15">
         <f t="shared" si="0"/>
         <v>0.74455745890078096</v>
       </c>
-      <c r="J157" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC157" s="15" t="s">
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="s">
         <v>84</v>
       </c>
-      <c r="AD157" s="15" t="s">
+      <c r="AD157" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12585,35 +12588,35 @@
       <c r="B158" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" t="s">
         <v>63</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158">
         <v>7</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="E158" t="s">
         <v>32</v>
       </c>
-      <c r="F158" s="15">
+      <c r="F158">
         <v>2.08</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158">
         <v>0.94</v>
       </c>
-      <c r="H158" s="15">
+      <c r="H158">
         <v>0.17</v>
       </c>
-      <c r="I158" s="16">
+      <c r="I158" s="15">
         <f t="shared" si="0"/>
         <v>1.5356104890746909</v>
       </c>
-      <c r="J158" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC158" s="15" t="s">
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="s">
         <v>84</v>
       </c>
-      <c r="AD158" s="15" t="s">
+      <c r="AD158" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12624,35 +12627,35 @@
       <c r="B159" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C159" t="s">
         <v>63</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159">
         <v>8</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" t="s">
         <v>32</v>
       </c>
-      <c r="F159" s="15">
+      <c r="F159">
         <v>2.19</v>
       </c>
-      <c r="G159" s="15">
+      <c r="G159">
         <v>1.41</v>
       </c>
-      <c r="H159" s="15">
+      <c r="H159">
         <v>0.2</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="15">
         <f t="shared" si="0"/>
         <v>2.4252309887549806</v>
       </c>
-      <c r="J159" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC159" s="15" t="s">
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="s">
         <v>84</v>
       </c>
-      <c r="AD159" s="15" t="s">
+      <c r="AD159" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12663,35 +12666,35 @@
       <c r="B160" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" t="s">
         <v>63</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160">
         <v>9</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" t="s">
         <v>32</v>
       </c>
-      <c r="F160" s="15">
+      <c r="F160">
         <v>1.91</v>
       </c>
-      <c r="G160" s="15">
+      <c r="G160">
         <v>0.7</v>
       </c>
-      <c r="H160" s="15">
+      <c r="H160">
         <v>0.23</v>
       </c>
-      <c r="I160" s="16">
+      <c r="I160" s="15">
         <f t="shared" si="0"/>
         <v>1.0500773444623883</v>
       </c>
-      <c r="J160" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC160" s="15" t="s">
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="s">
         <v>84</v>
       </c>
-      <c r="AD160" s="15" t="s">
+      <c r="AD160" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12702,32 +12705,32 @@
       <c r="B161" s="14">
         <v>0.46666666666666662</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C161" t="s">
         <v>63</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161">
         <v>10</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" t="s">
         <v>32</v>
       </c>
-      <c r="F161" s="15">
+      <c r="F161">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G161" s="15">
+      <c r="G161">
         <v>0.62</v>
       </c>
-      <c r="H161" s="15">
+      <c r="H161">
         <v>0.22</v>
       </c>
-      <c r="I161" s="16">
+      <c r="I161" s="15">
         <f t="shared" si="0"/>
         <v>1.2124976846529807</v>
       </c>
-      <c r="J161" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC161" s="15" t="s">
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="s">
         <v>84</v>
       </c>
       <c r="AD161" t="s">
@@ -12741,32 +12744,32 @@
       <c r="B162" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162">
         <v>1</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" t="s">
         <v>85</v>
       </c>
-      <c r="F162" s="15">
+      <c r="F162">
         <v>2.08</v>
       </c>
-      <c r="G162" s="15">
+      <c r="G162">
         <v>1.08</v>
       </c>
-      <c r="H162" s="15">
+      <c r="H162">
         <v>0.35</v>
       </c>
-      <c r="I162" s="16">
+      <c r="I162" s="15">
         <f t="shared" si="0"/>
         <v>1.7643184342560281</v>
       </c>
-      <c r="J162" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC162" s="15" t="s">
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="s">
         <v>87</v>
       </c>
       <c r="AD162" t="s">
@@ -12780,32 +12783,32 @@
       <c r="B163" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" t="s">
         <v>53</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163">
         <v>2</v>
       </c>
-      <c r="E163" s="15" t="s">
+      <c r="E163" t="s">
         <v>85</v>
       </c>
-      <c r="F163" s="15">
+      <c r="F163">
         <v>2.75</v>
       </c>
-      <c r="G163" s="15">
+      <c r="G163">
         <v>1.58</v>
       </c>
-      <c r="H163" s="15">
+      <c r="H163">
         <v>0.41</v>
       </c>
-      <c r="I163" s="16">
+      <c r="I163" s="15">
         <f t="shared" si="0"/>
         <v>3.4125550199619132</v>
       </c>
-      <c r="J163" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC163" s="15" t="s">
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="s">
         <v>87</v>
       </c>
       <c r="AD163" t="s">
@@ -12819,32 +12822,32 @@
       <c r="B164" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" t="s">
         <v>53</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164">
         <v>3</v>
       </c>
-      <c r="E164" s="15" t="s">
+      <c r="E164" t="s">
         <v>85</v>
       </c>
-      <c r="F164" s="15">
+      <c r="F164">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G164" s="15">
+      <c r="G164">
         <v>0.51</v>
       </c>
-      <c r="H164" s="15">
+      <c r="H164">
         <v>0.16</v>
       </c>
-      <c r="I164" s="16">
+      <c r="I164" s="15">
         <f t="shared" si="0"/>
         <v>0.45663049219927637</v>
       </c>
-      <c r="J164" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC164" s="15" t="s">
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="s">
         <v>87</v>
       </c>
       <c r="AD164" t="s">
@@ -12858,32 +12861,32 @@
       <c r="B165" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" t="s">
         <v>53</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165">
         <v>4</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" t="s">
         <v>85</v>
       </c>
-      <c r="F165" s="15">
+      <c r="F165">
         <v>2.17</v>
       </c>
-      <c r="G165" s="15">
+      <c r="G165">
         <v>0.71</v>
       </c>
-      <c r="H165" s="15">
+      <c r="H165">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I165" s="16">
+      <c r="I165" s="15">
         <f t="shared" si="0"/>
         <v>1.2100629503464486</v>
       </c>
-      <c r="J165" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC165" s="15" t="s">
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="s">
         <v>87</v>
       </c>
       <c r="AD165" t="s">
@@ -12897,32 +12900,32 @@
       <c r="B166" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" t="s">
         <v>53</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166">
         <v>5</v>
       </c>
-      <c r="E166" s="15" t="s">
+      <c r="E166" t="s">
         <v>85</v>
       </c>
-      <c r="F166" s="15">
+      <c r="F166">
         <v>3.98</v>
       </c>
-      <c r="G166" s="15">
+      <c r="G166">
         <v>2.13</v>
       </c>
-      <c r="H166" s="15">
+      <c r="H166">
         <v>0.27</v>
       </c>
-      <c r="I166" s="16">
+      <c r="I166" s="15">
         <f t="shared" si="0"/>
         <v>6.6581343903855279</v>
       </c>
-      <c r="J166" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC166" s="15" t="s">
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="s">
         <v>87</v>
       </c>
       <c r="AD166" t="s">
@@ -12936,32 +12939,32 @@
       <c r="B167" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C167" t="s">
         <v>53</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167">
         <v>6</v>
       </c>
-      <c r="E167" s="15" t="s">
+      <c r="E167" t="s">
         <v>85</v>
       </c>
-      <c r="F167" s="15">
+      <c r="F167">
         <v>3</v>
       </c>
-      <c r="G167" s="15">
+      <c r="G167">
         <v>0.71</v>
       </c>
-      <c r="H167" s="15">
+      <c r="H167">
         <v>0.25</v>
       </c>
-      <c r="I167" s="16">
+      <c r="I167" s="15">
         <f t="shared" si="0"/>
         <v>1.6728980880365647</v>
       </c>
-      <c r="J167" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC167" s="15" t="s">
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="s">
         <v>87</v>
       </c>
       <c r="AD167" t="s">
@@ -12975,32 +12978,32 @@
       <c r="B168" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168">
         <v>7</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" t="s">
         <v>85</v>
       </c>
-      <c r="F168" s="15">
+      <c r="F168">
         <v>2.34</v>
       </c>
-      <c r="G168" s="15">
+      <c r="G168">
         <v>1.2</v>
       </c>
-      <c r="H168" s="15">
+      <c r="H168">
         <v>0.33</v>
       </c>
-      <c r="I168" s="16">
+      <c r="I168" s="15">
         <f t="shared" si="0"/>
         <v>2.2053980428200348</v>
       </c>
-      <c r="J168" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC168" s="15" t="s">
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="s">
         <v>87</v>
       </c>
       <c r="AD168" t="s">
@@ -13014,32 +13017,32 @@
       <c r="B169" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C169" t="s">
         <v>53</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169">
         <v>8</v>
       </c>
-      <c r="E169" s="15" t="s">
+      <c r="E169" t="s">
         <v>85</v>
       </c>
-      <c r="F169" s="15">
+      <c r="F169">
         <v>4.21</v>
       </c>
-      <c r="G169" s="15">
+      <c r="G169">
         <v>2.06</v>
       </c>
-      <c r="H169" s="15">
+      <c r="H169">
         <v>0.45</v>
       </c>
-      <c r="I169" s="16">
+      <c r="I169" s="15">
         <f t="shared" si="0"/>
         <v>6.8114441118807108</v>
       </c>
-      <c r="J169" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC169" s="15" t="s">
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="s">
         <v>87</v>
       </c>
       <c r="AD169" t="s">
@@ -13053,32 +13056,32 @@
       <c r="B170" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C170" t="s">
         <v>53</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170">
         <v>9</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="E170" t="s">
         <v>85</v>
       </c>
-      <c r="F170" s="15">
+      <c r="F170">
         <v>2.92</v>
       </c>
-      <c r="G170" s="15">
+      <c r="G170">
         <v>0.94</v>
       </c>
-      <c r="H170" s="15">
+      <c r="H170">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I170" s="16">
+      <c r="I170" s="15">
         <f t="shared" si="0"/>
         <v>2.1557608788933158</v>
       </c>
-      <c r="J170" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC170" s="15" t="s">
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="s">
         <v>87</v>
       </c>
       <c r="AD170" t="s">
@@ -13092,32 +13095,32 @@
       <c r="B171" s="14">
         <v>0.5854166666666667</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" t="s">
         <v>53</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171">
         <v>10</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E171" t="s">
         <v>85</v>
       </c>
-      <c r="F171" s="15">
+      <c r="F171">
         <v>2.81</v>
       </c>
-      <c r="G171" s="15">
+      <c r="G171">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H171" s="15">
+      <c r="H171">
         <v>0.21</v>
       </c>
-      <c r="I171" s="16">
+      <c r="I171" s="15">
         <f t="shared" si="0"/>
         <v>2.4938747882359174</v>
       </c>
-      <c r="J171" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC171" s="15" t="s">
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="s">
         <v>87</v>
       </c>
       <c r="AD171" t="s">
@@ -13128,32 +13131,32 @@
       <c r="A172" s="13">
         <v>44901</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C172" t="s">
         <v>43</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172">
         <v>1</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="F172" s="15">
-        <v>0</v>
-      </c>
-      <c r="G172" s="15">
-        <v>0</v>
-      </c>
-      <c r="H172" s="15">
-        <v>0</v>
-      </c>
-      <c r="I172" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC172" s="15" t="s">
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="s">
         <v>87</v>
       </c>
       <c r="AD172" t="s">
@@ -13167,29 +13170,29 @@
       <c r="B173" s="14">
         <v>0.56666666666666665</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="C173" t="s">
         <v>48</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173">
         <v>1</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173" s="15">
-        <v>0</v>
-      </c>
-      <c r="G173" s="15">
-        <v>0</v>
-      </c>
-      <c r="H173" s="15">
-        <v>0</v>
-      </c>
-      <c r="I173" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="15">
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J173">
         <v>0</v>
       </c>
       <c r="AC173" t="s">
@@ -13206,29 +13209,29 @@
       <c r="B174" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" t="s">
         <v>53</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174">
         <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>88</v>
       </c>
-      <c r="F174" s="15">
+      <c r="F174">
         <v>3.99</v>
       </c>
-      <c r="G174" s="15">
+      <c r="G174">
         <v>0.94</v>
       </c>
-      <c r="H174" s="15">
+      <c r="H174">
         <v>0.39</v>
       </c>
-      <c r="I174" s="16">
+      <c r="I174" s="15">
         <f t="shared" si="0"/>
         <v>2.9457143516384696</v>
       </c>
-      <c r="J174" s="15">
+      <c r="J174">
         <v>0</v>
       </c>
       <c r="Y174" t="s">
@@ -13251,29 +13254,29 @@
       <c r="B175" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" t="s">
         <v>53</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175">
         <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>88</v>
       </c>
-      <c r="F175" s="15">
+      <c r="F175">
         <v>3.85</v>
       </c>
-      <c r="G175" s="15">
+      <c r="G175">
         <v>0.94</v>
       </c>
-      <c r="H175" s="15">
+      <c r="H175">
         <v>0.35</v>
       </c>
-      <c r="I175" s="16">
+      <c r="I175" s="15">
         <f t="shared" si="0"/>
         <v>2.8423559533353653</v>
       </c>
-      <c r="J175" s="15">
+      <c r="J175">
         <v>0</v>
       </c>
       <c r="Y175" t="s">
@@ -13296,29 +13299,29 @@
       <c r="B176" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" t="s">
         <v>53</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
         <v>88</v>
       </c>
-      <c r="F176" s="15">
+      <c r="F176">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G176" s="15">
+      <c r="G176">
         <v>0.93</v>
       </c>
-      <c r="H176" s="15">
+      <c r="H176">
         <v>0.36</v>
       </c>
-      <c r="I176" s="16">
+      <c r="I176" s="15">
         <f t="shared" si="0"/>
         <v>1.8333549328186634</v>
       </c>
-      <c r="J176" s="15">
+      <c r="J176">
         <v>0</v>
       </c>
       <c r="Y176" t="s">
@@ -13341,29 +13344,29 @@
       <c r="B177" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C177" s="15" t="s">
+      <c r="C177" t="s">
         <v>53</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
         <v>88</v>
       </c>
-      <c r="F177" s="15">
+      <c r="F177">
         <v>5.52</v>
       </c>
-      <c r="G177" s="15">
+      <c r="G177">
         <v>1.63</v>
       </c>
-      <c r="H177" s="15">
+      <c r="H177">
         <v>0.41</v>
       </c>
-      <c r="I177" s="16">
+      <c r="I177" s="15">
         <f t="shared" si="0"/>
         <v>7.0666985149848793</v>
       </c>
-      <c r="J177" s="15">
+      <c r="J177">
         <v>2.07E-2</v>
       </c>
       <c r="Y177" t="s">
@@ -13386,29 +13389,29 @@
       <c r="B178" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178">
         <v>5</v>
       </c>
       <c r="E178" t="s">
         <v>88</v>
       </c>
-      <c r="F178" s="15">
+      <c r="F178">
         <v>3.89</v>
       </c>
-      <c r="G178" s="15">
+      <c r="G178">
         <v>0.93</v>
       </c>
-      <c r="H178" s="15">
+      <c r="H178">
         <v>0.27</v>
       </c>
-      <c r="I178" s="16">
+      <c r="I178" s="15">
         <f t="shared" si="0"/>
         <v>2.8413349357229487</v>
       </c>
-      <c r="J178" s="15">
+      <c r="J178">
         <v>0</v>
       </c>
       <c r="Y178" t="s">
@@ -13431,29 +13434,29 @@
       <c r="B179" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C179" s="15" t="s">
+      <c r="C179" t="s">
         <v>53</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179">
         <v>6</v>
       </c>
       <c r="E179" t="s">
         <v>88</v>
       </c>
-      <c r="F179" s="15">
+      <c r="F179">
         <v>1.4</v>
       </c>
-      <c r="G179" s="15">
+      <c r="G179">
         <v>0.9</v>
       </c>
-      <c r="H179" s="15">
+      <c r="H179">
         <v>0.31</v>
       </c>
-      <c r="I179" s="16">
+      <c r="I179" s="15">
         <f t="shared" si="0"/>
         <v>0.98960168588078479</v>
       </c>
-      <c r="J179" s="15">
+      <c r="J179">
         <v>0</v>
       </c>
       <c r="Y179" t="s">
@@ -13476,29 +13479,29 @@
       <c r="B180" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" t="s">
         <v>53</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180">
         <v>7</v>
       </c>
       <c r="E180" t="s">
         <v>88</v>
       </c>
-      <c r="F180" s="15">
+      <c r="F180">
         <v>4.66</v>
       </c>
-      <c r="G180" s="15">
+      <c r="G180">
         <v>3.52</v>
       </c>
-      <c r="H180" s="15">
+      <c r="H180">
         <v>0.47</v>
       </c>
-      <c r="I180" s="16">
+      <c r="I180" s="15">
         <f t="shared" si="0"/>
         <v>12.883043153841024</v>
       </c>
-      <c r="J180" s="15">
+      <c r="J180">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="Y180" t="s">
@@ -13521,29 +13524,29 @@
       <c r="B181" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" t="s">
         <v>53</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181">
         <v>8</v>
       </c>
       <c r="E181" t="s">
         <v>88</v>
       </c>
-      <c r="F181" s="15">
+      <c r="F181">
         <v>7.25</v>
       </c>
-      <c r="G181" s="15">
+      <c r="G181">
         <v>2.09</v>
       </c>
-      <c r="H181" s="15">
+      <c r="H181">
         <v>0.43</v>
       </c>
-      <c r="I181" s="16">
+      <c r="I181" s="15">
         <f t="shared" si="0"/>
         <v>11.900745670879836</v>
       </c>
-      <c r="J181" s="15">
+      <c r="J181">
         <v>0</v>
       </c>
       <c r="Y181" t="s">
@@ -13566,29 +13569,29 @@
       <c r="B182" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" t="s">
         <v>53</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182">
         <v>9</v>
       </c>
       <c r="E182" t="s">
         <v>88</v>
       </c>
-      <c r="F182" s="15">
+      <c r="F182">
         <v>6.89</v>
       </c>
-      <c r="G182" s="15">
+      <c r="G182">
         <v>5.97</v>
       </c>
-      <c r="H182" s="15">
+      <c r="H182">
         <v>0.47</v>
       </c>
-      <c r="I182" s="16">
+      <c r="I182" s="15">
         <f t="shared" si="0"/>
         <v>32.306018274476259</v>
       </c>
-      <c r="J182" s="15">
+      <c r="J182">
         <v>0</v>
       </c>
       <c r="Y182" t="s">
@@ -13611,29 +13614,29 @@
       <c r="B183" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" t="s">
         <v>53</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183">
         <v>10</v>
       </c>
       <c r="E183" t="s">
         <v>88</v>
       </c>
-      <c r="F183" s="15">
+      <c r="F183">
         <v>5.59</v>
       </c>
-      <c r="G183" s="15">
+      <c r="G183">
         <v>5.41</v>
       </c>
-      <c r="H183" s="15">
+      <c r="H183">
         <v>0.44</v>
       </c>
-      <c r="I183" s="16">
+      <c r="I183" s="15">
         <f t="shared" si="0"/>
         <v>23.751932717649293</v>
       </c>
-      <c r="J183" s="15">
+      <c r="J183">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Y183" t="s">
@@ -13656,35 +13659,35 @@
       <c r="B184" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" t="s">
         <v>53</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184">
         <v>11</v>
       </c>
       <c r="E184" t="s">
         <v>88</v>
       </c>
-      <c r="F184" s="15">
+      <c r="F184">
         <v>1.71</v>
       </c>
-      <c r="G184" s="15">
+      <c r="G184">
         <v>1.03</v>
       </c>
-      <c r="H184" s="15">
+      <c r="H184">
         <v>0.43</v>
       </c>
-      <c r="I184" s="16">
+      <c r="I184" s="15">
         <f t="shared" si="0"/>
         <v>1.3833217851919257</v>
       </c>
-      <c r="J184" s="15">
+      <c r="J184">
         <v>0</v>
       </c>
       <c r="Y184" t="s">
         <v>93</v>
       </c>
-      <c r="Z184" s="17" t="s">
+      <c r="Z184" s="16" t="s">
         <v>90</v>
       </c>
       <c r="AC184" t="s">
@@ -13701,29 +13704,29 @@
       <c r="B185" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" t="s">
         <v>53</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185">
         <v>12</v>
       </c>
       <c r="E185" t="s">
         <v>88</v>
       </c>
-      <c r="F185" s="15">
+      <c r="F185">
         <v>3.19</v>
       </c>
-      <c r="G185" s="15">
+      <c r="G185">
         <v>0.8</v>
       </c>
-      <c r="H185" s="15">
+      <c r="H185">
         <v>0.19</v>
       </c>
-      <c r="I185" s="16">
+      <c r="I185" s="15">
         <f t="shared" si="0"/>
         <v>2.0043361129902881</v>
       </c>
-      <c r="J185" s="15">
+      <c r="J185">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="Y185" t="s">
@@ -13746,29 +13749,29 @@
       <c r="B186" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="C186" t="s">
         <v>53</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186">
         <v>13</v>
       </c>
       <c r="E186" t="s">
         <v>88</v>
       </c>
-      <c r="F186" s="15">
+      <c r="F186">
         <v>1.39</v>
       </c>
-      <c r="G186" s="15">
+      <c r="G186">
         <v>0.89</v>
       </c>
-      <c r="H186" s="15">
+      <c r="H186">
         <v>0.19</v>
       </c>
-      <c r="I186" s="16">
+      <c r="I186" s="15">
         <f t="shared" si="0"/>
         <v>0.97161606793898314</v>
       </c>
-      <c r="J186" s="15">
+      <c r="J186">
         <v>0</v>
       </c>
       <c r="Y186" t="s">
@@ -13791,29 +13794,29 @@
       <c r="B187" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C187" s="15" t="s">
+      <c r="C187" t="s">
         <v>53</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187">
         <v>14</v>
       </c>
       <c r="E187" t="s">
         <v>88</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G187" s="15">
+      <c r="G187">
         <v>2.88</v>
       </c>
-      <c r="H187" s="15">
+      <c r="H187">
         <v>0.31</v>
       </c>
-      <c r="I187" s="16">
+      <c r="I187" s="15">
         <f t="shared" si="0"/>
         <v>9.8394681910432311</v>
       </c>
-      <c r="J187" s="15">
+      <c r="J187">
         <v>0</v>
       </c>
       <c r="Y187" t="s">
@@ -13836,29 +13839,29 @@
       <c r="B188" s="14">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C188" t="s">
         <v>53</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188">
         <v>15</v>
       </c>
       <c r="E188" t="s">
         <v>88</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188">
         <v>3.55</v>
       </c>
-      <c r="G188" s="15">
+      <c r="G188">
         <v>1.8</v>
       </c>
-      <c r="H188" s="15">
+      <c r="H188">
         <v>0.37</v>
       </c>
-      <c r="I188" s="16">
+      <c r="I188" s="15">
         <f t="shared" si="0"/>
         <v>5.0186942641096941</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J188">
         <v>0</v>
       </c>
       <c r="Y188" t="s">
@@ -13881,47 +13884,47 @@
       <c r="B189" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C189" t="s">
         <v>43</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189">
         <v>1</v>
       </c>
-      <c r="E189" s="17" t="s">
+      <c r="E189" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F189" s="17">
+      <c r="F189" s="16">
         <v>2.36</v>
       </c>
-      <c r="G189" s="17">
+      <c r="G189" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H189" s="17">
+      <c r="H189" s="16">
         <v>0.19</v>
       </c>
-      <c r="I189" s="16">
+      <c r="I189" s="15">
         <f t="shared" si="0"/>
         <v>1.019446816089888</v>
       </c>
-      <c r="J189" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y189" s="17" t="s">
+      <c r="J189" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="Z189" s="17" t="s">
+      <c r="Z189" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AA189" s="17" t="s">
+      <c r="AA189" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AB189" t="s">
         <v>100</v>
       </c>
-      <c r="AC189" s="17" t="s">
+      <c r="AC189" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD189" s="17" t="s">
+      <c r="AD189" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13932,29 +13935,29 @@
       <c r="B190" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C190" s="15" t="s">
+      <c r="C190" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190">
         <v>2</v>
       </c>
-      <c r="E190" s="17" t="s">
+      <c r="E190" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="16">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G190" s="17">
+      <c r="G190" s="16">
         <v>0.32</v>
       </c>
-      <c r="H190" s="17">
+      <c r="H190" s="16">
         <v>0.06</v>
       </c>
-      <c r="I190" s="16">
+      <c r="I190" s="15">
         <f t="shared" si="0"/>
         <v>0.64088490133231779</v>
       </c>
-      <c r="J190" s="17">
+      <c r="J190" s="16">
         <v>0</v>
       </c>
       <c r="Y190" t="s">
@@ -13966,13 +13969,13 @@
       <c r="AA190" t="s">
         <v>99</v>
       </c>
-      <c r="AB190" s="17" t="s">
+      <c r="AB190" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AC190" s="17" t="s">
+      <c r="AC190" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD190" s="17" t="s">
+      <c r="AD190" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13983,29 +13986,29 @@
       <c r="B191" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="C191" t="s">
         <v>43</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191">
         <v>3</v>
       </c>
-      <c r="E191" s="17" t="s">
+      <c r="E191" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F191" s="17">
+      <c r="F191" s="16">
         <v>1.18</v>
       </c>
-      <c r="G191" s="17">
+      <c r="G191" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H191" s="17">
+      <c r="H191" s="16">
         <v>0.17</v>
       </c>
-      <c r="I191" s="16">
+      <c r="I191" s="15">
         <f t="shared" si="0"/>
         <v>0.50972340804494398</v>
       </c>
-      <c r="J191" s="17">
+      <c r="J191" s="16">
         <v>0</v>
       </c>
       <c r="Y191" t="s">
@@ -14020,10 +14023,10 @@
       <c r="AB191" t="s">
         <v>100</v>
       </c>
-      <c r="AC191" s="17" t="s">
+      <c r="AC191" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD191" s="17" t="s">
+      <c r="AD191" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14034,29 +14037,29 @@
       <c r="B192" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" t="s">
         <v>43</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192">
         <v>4</v>
       </c>
-      <c r="E192" s="17" t="s">
+      <c r="E192" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="16">
         <v>1.41</v>
       </c>
-      <c r="G192" s="17">
+      <c r="G192" s="16">
         <v>0.6</v>
       </c>
-      <c r="H192" s="17">
+      <c r="H192" s="16">
         <v>0.15</v>
       </c>
-      <c r="I192" s="16">
+      <c r="I192" s="15">
         <f t="shared" si="0"/>
         <v>0.66444684623424122</v>
       </c>
-      <c r="J192" s="17">
+      <c r="J192" s="16">
         <v>0</v>
       </c>
       <c r="Y192" t="s">
@@ -14071,10 +14074,10 @@
       <c r="AB192" t="s">
         <v>100</v>
       </c>
-      <c r="AC192" s="17" t="s">
+      <c r="AC192" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD192" s="17" t="s">
+      <c r="AD192" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14085,29 +14088,29 @@
       <c r="B193" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C193" s="15" t="s">
+      <c r="C193" t="s">
         <v>43</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193">
         <v>5</v>
       </c>
-      <c r="E193" s="17" t="s">
+      <c r="E193" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="16">
         <v>5.69</v>
       </c>
-      <c r="G193" s="17">
+      <c r="G193" s="16">
         <v>1.92</v>
       </c>
-      <c r="H193" s="17">
+      <c r="H193" s="16">
         <v>0.24</v>
       </c>
-      <c r="I193" s="16">
+      <c r="I193" s="15">
         <f t="shared" si="0"/>
         <v>8.5803178554844433</v>
       </c>
-      <c r="J193" s="17">
+      <c r="J193" s="16">
         <v>0</v>
       </c>
       <c r="Y193" t="s">
@@ -14122,10 +14125,10 @@
       <c r="AB193" t="s">
         <v>100</v>
       </c>
-      <c r="AC193" s="17" t="s">
+      <c r="AC193" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD193" s="17" t="s">
+      <c r="AD193" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14136,29 +14139,29 @@
       <c r="B194" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" t="s">
         <v>43</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194">
         <v>6</v>
       </c>
-      <c r="E194" s="17" t="s">
+      <c r="E194" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F194" s="17">
+      <c r="F194" s="16">
         <v>4.63</v>
       </c>
-      <c r="G194" s="17">
+      <c r="G194" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H194" s="17">
+      <c r="H194" s="16">
         <v>0.19</v>
       </c>
-      <c r="I194" s="16">
+      <c r="I194" s="15">
         <f t="shared" si="0"/>
         <v>2.0000164230916022</v>
       </c>
-      <c r="J194" s="17">
+      <c r="J194" s="16">
         <v>0</v>
       </c>
       <c r="Y194" t="s">
@@ -14173,10 +14176,10 @@
       <c r="AB194" t="s">
         <v>100</v>
       </c>
-      <c r="AC194" s="17" t="s">
+      <c r="AC194" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD194" s="17" t="s">
+      <c r="AD194" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14187,29 +14190,29 @@
       <c r="B195" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" t="s">
         <v>43</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195">
         <v>7</v>
       </c>
-      <c r="E195" s="17" t="s">
+      <c r="E195" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F195" s="17">
+      <c r="F195" s="16">
         <v>1.96</v>
       </c>
-      <c r="G195" s="17">
+      <c r="G195" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H195" s="17">
+      <c r="H195" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I195" s="16">
+      <c r="I195" s="15">
         <f t="shared" si="0"/>
         <v>0.86205302414503937</v>
       </c>
-      <c r="J195" s="17">
+      <c r="J195" s="16">
         <v>0</v>
       </c>
       <c r="Y195" t="s">
@@ -14224,10 +14227,10 @@
       <c r="AB195" t="s">
         <v>100</v>
       </c>
-      <c r="AC195" s="17" t="s">
+      <c r="AC195" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD195" s="17" t="s">
+      <c r="AD195" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14238,38 +14241,38 @@
       <c r="B196" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C196" s="15" t="s">
+      <c r="C196" t="s">
         <v>43</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196">
         <v>8</v>
       </c>
-      <c r="E196" s="17" t="s">
+      <c r="E196" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F196" s="17">
+      <c r="F196" s="16">
         <v>2.4</v>
       </c>
-      <c r="G196" s="17">
+      <c r="G196" s="16">
         <v>0.96</v>
       </c>
-      <c r="H196" s="17">
+      <c r="H196" s="16">
         <v>0.05</v>
       </c>
-      <c r="I196" s="16">
+      <c r="I196" s="15">
         <f t="shared" si="0"/>
         <v>1.8095573684677206</v>
       </c>
-      <c r="J196" s="17">
+      <c r="J196" s="16">
         <v>6.6E-3</v>
       </c>
-      <c r="K196" s="17">
-        <v>0</v>
-      </c>
-      <c r="L196" s="17">
+      <c r="K196" s="16">
+        <v>0</v>
+      </c>
+      <c r="L196" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Y196" s="17" t="s">
+      <c r="Y196" s="16" t="s">
         <v>97</v>
       </c>
       <c r="Z196" t="s">
@@ -14281,10 +14284,10 @@
       <c r="AB196" t="s">
         <v>100</v>
       </c>
-      <c r="AC196" s="17" t="s">
+      <c r="AC196" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD196" s="17" t="s">
+      <c r="AD196" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14295,29 +14298,29 @@
       <c r="B197" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197">
         <v>9</v>
       </c>
-      <c r="E197" s="17" t="s">
+      <c r="E197" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F197" s="17">
+      <c r="F197" s="16">
         <v>1</v>
       </c>
-      <c r="G197" s="17">
+      <c r="G197" s="16">
         <v>0.27</v>
       </c>
-      <c r="H197" s="17">
+      <c r="H197" s="16">
         <v>0.12</v>
       </c>
-      <c r="I197" s="16">
+      <c r="I197" s="15">
         <f t="shared" si="0"/>
         <v>0.21205750411731106</v>
       </c>
-      <c r="J197" s="17">
+      <c r="J197" s="16">
         <v>0</v>
       </c>
       <c r="Y197" t="s">
@@ -14332,10 +14335,10 @@
       <c r="AB197" t="s">
         <v>100</v>
       </c>
-      <c r="AC197" s="17" t="s">
+      <c r="AC197" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD197" s="17" t="s">
+      <c r="AD197" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14346,29 +14349,29 @@
       <c r="B198" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198">
         <v>10</v>
       </c>
-      <c r="E198" s="17" t="s">
+      <c r="E198" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F198" s="17">
+      <c r="F198" s="16">
         <v>3</v>
       </c>
-      <c r="G198" s="17">
+      <c r="G198" s="16">
         <v>0.54</v>
       </c>
-      <c r="H198" s="17">
+      <c r="H198" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I198" s="16">
+      <c r="I198" s="15">
         <f t="shared" si="0"/>
         <v>1.2723450247038663</v>
       </c>
-      <c r="J198" s="17">
+      <c r="J198" s="16">
         <v>0</v>
       </c>
       <c r="Y198" t="s">
@@ -14383,10 +14386,10 @@
       <c r="AB198" t="s">
         <v>100</v>
       </c>
-      <c r="AC198" s="17" t="s">
+      <c r="AC198" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD198" s="17" t="s">
+      <c r="AD198" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14397,29 +14400,29 @@
       <c r="B199" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" t="s">
         <v>43</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199">
         <v>11</v>
       </c>
-      <c r="E199" s="17" t="s">
+      <c r="E199" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F199" s="17">
+      <c r="F199" s="16">
         <v>3.73</v>
       </c>
-      <c r="G199" s="17">
+      <c r="G199" s="16">
         <v>1.18</v>
       </c>
-      <c r="H199" s="17">
+      <c r="H199" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I199" s="16">
+      <c r="I199" s="15">
         <f t="shared" si="0"/>
         <v>3.4568514763775289</v>
       </c>
-      <c r="J199" s="17">
+      <c r="J199" s="16">
         <v>0</v>
       </c>
       <c r="Y199" t="s">
@@ -14434,10 +14437,10 @@
       <c r="AB199" t="s">
         <v>100</v>
       </c>
-      <c r="AC199" s="17" t="s">
+      <c r="AC199" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD199" s="17" t="s">
+      <c r="AD199" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14448,29 +14451,29 @@
       <c r="B200" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" t="s">
         <v>43</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200">
         <v>12</v>
       </c>
-      <c r="E200" s="17" t="s">
+      <c r="E200" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F200" s="17">
+      <c r="F200" s="16">
         <v>1.59</v>
       </c>
-      <c r="G200" s="17">
+      <c r="G200" s="16">
         <v>0.64</v>
       </c>
-      <c r="H200" s="17">
+      <c r="H200" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I200" s="16">
+      <c r="I200" s="15">
         <f t="shared" si="0"/>
         <v>0.79922117107324342</v>
       </c>
-      <c r="J200" s="17">
+      <c r="J200" s="16">
         <v>0</v>
       </c>
       <c r="Y200" t="s">
@@ -14479,16 +14482,16 @@
       <c r="Z200" t="s">
         <v>98</v>
       </c>
-      <c r="AA200" s="17" t="s">
+      <c r="AA200" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AB200" t="s">
         <v>100</v>
       </c>
-      <c r="AC200" s="17" t="s">
+      <c r="AC200" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD200" s="17" t="s">
+      <c r="AD200" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14499,29 +14502,29 @@
       <c r="B201" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" t="s">
         <v>63</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201">
         <v>1</v>
       </c>
-      <c r="E201" s="17" t="s">
+      <c r="E201" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="16">
         <v>2.7</v>
       </c>
-      <c r="G201" s="17">
+      <c r="G201" s="16">
         <v>0.75</v>
       </c>
-      <c r="H201" s="17">
+      <c r="H201" s="16">
         <v>0.05</v>
       </c>
-      <c r="I201" s="16">
+      <c r="I201" s="15">
         <f t="shared" si="0"/>
         <v>1.5904312808798331</v>
       </c>
-      <c r="J201" s="17">
+      <c r="J201" s="16">
         <v>0</v>
       </c>
       <c r="Y201" t="s">
@@ -14530,16 +14533,16 @@
       <c r="Z201" t="s">
         <v>103</v>
       </c>
-      <c r="AA201" s="17" t="s">
+      <c r="AA201" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AB201" s="17" t="s">
+      <c r="AB201" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AC201" s="17" t="s">
+      <c r="AC201" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD201" s="17" t="s">
+      <c r="AD201" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14547,32 +14550,32 @@
       <c r="A202" s="13">
         <v>44691</v>
       </c>
-      <c r="B202" s="18">
+      <c r="B202" s="17">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" t="s">
         <v>63</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202">
         <v>2</v>
       </c>
-      <c r="E202" s="17" t="s">
+      <c r="E202" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F202" s="17">
+      <c r="F202" s="16">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G202" s="17">
+      <c r="G202" s="16">
         <v>0.71</v>
       </c>
-      <c r="H202" s="17">
+      <c r="H202" s="16">
         <v>0.1</v>
       </c>
-      <c r="I202" s="16">
+      <c r="I202" s="15">
         <f t="shared" si="0"/>
         <v>1.2714025469077892</v>
       </c>
-      <c r="J202" s="17">
+      <c r="J202" s="16">
         <v>0</v>
       </c>
       <c r="Y202" t="s">
@@ -14587,10 +14590,10 @@
       <c r="AB202" t="s">
         <v>105</v>
       </c>
-      <c r="AC202" s="17" t="s">
+      <c r="AC202" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD202" s="17" t="s">
+      <c r="AD202" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14601,29 +14604,29 @@
       <c r="B203" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C203" t="s">
         <v>63</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203">
         <v>3</v>
       </c>
-      <c r="E203" s="17" t="s">
+      <c r="E203" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F203" s="17">
+      <c r="F203" s="16">
         <v>2.02</v>
       </c>
-      <c r="G203" s="17">
+      <c r="G203" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H203" s="17">
+      <c r="H203" s="16">
         <v>0.11</v>
       </c>
-      <c r="I203" s="16">
+      <c r="I203" s="15">
         <f t="shared" si="0"/>
         <v>0.87257735953456517</v>
       </c>
-      <c r="J203" s="17">
+      <c r="J203" s="16">
         <v>0</v>
       </c>
       <c r="Y203" t="s">
@@ -14638,10 +14641,10 @@
       <c r="AB203" t="s">
         <v>105</v>
       </c>
-      <c r="AC203" s="17" t="s">
+      <c r="AC203" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD203" s="17" t="s">
+      <c r="AD203" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14652,29 +14655,29 @@
       <c r="B204" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C204" t="s">
         <v>63</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204">
         <v>4</v>
       </c>
-      <c r="E204" s="17" t="s">
+      <c r="E204" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F204" s="17">
+      <c r="F204" s="16">
         <v>4.45</v>
       </c>
-      <c r="G204" s="17">
+      <c r="G204" s="16">
         <v>0.98</v>
       </c>
-      <c r="H204" s="17">
+      <c r="H204" s="16">
         <v>0.24</v>
       </c>
-      <c r="I204" s="16">
+      <c r="I204" s="15">
         <f t="shared" si="0"/>
         <v>3.4251213905762716</v>
       </c>
-      <c r="J204" s="17">
+      <c r="J204" s="16">
         <v>0</v>
       </c>
       <c r="Y204" t="s">
@@ -14689,10 +14692,10 @@
       <c r="AB204" t="s">
         <v>105</v>
       </c>
-      <c r="AC204" s="17" t="s">
+      <c r="AC204" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD204" s="17" t="s">
+      <c r="AD204" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14703,29 +14706,29 @@
       <c r="B205" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" t="s">
         <v>63</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205">
         <v>5</v>
       </c>
-      <c r="E205" s="17" t="s">
+      <c r="E205" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F205" s="17">
+      <c r="F205" s="16">
         <v>2.83</v>
       </c>
-      <c r="G205" s="17">
+      <c r="G205" s="16">
         <v>1.37</v>
       </c>
-      <c r="H205" s="17">
+      <c r="H205" s="16">
         <v>0.23</v>
       </c>
-      <c r="I205" s="16">
+      <c r="I205" s="15">
         <f t="shared" si="0"/>
         <v>3.0450672193082471</v>
       </c>
-      <c r="J205" s="17">
+      <c r="J205" s="16">
         <v>0</v>
       </c>
       <c r="Y205" t="s">
@@ -14740,10 +14743,10 @@
       <c r="AB205" t="s">
         <v>105</v>
       </c>
-      <c r="AC205" s="17" t="s">
+      <c r="AC205" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD205" s="17" t="s">
+      <c r="AD205" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14754,29 +14757,29 @@
       <c r="B206" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" t="s">
         <v>63</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206">
         <v>6</v>
       </c>
-      <c r="E206" s="17" t="s">
+      <c r="E206" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F206" s="17">
+      <c r="F206" s="16">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G206" s="17">
+      <c r="G206" s="16">
         <v>1.2</v>
       </c>
-      <c r="H206" s="17">
+      <c r="H206" s="16">
         <v>0.24</v>
       </c>
-      <c r="I206" s="16">
+      <c r="I206" s="15">
         <f t="shared" si="0"/>
         <v>2.2902210444669593</v>
       </c>
-      <c r="J206" s="17">
+      <c r="J206" s="16">
         <v>0</v>
       </c>
       <c r="Y206" t="s">
@@ -14791,10 +14794,10 @@
       <c r="AB206" t="s">
         <v>105</v>
       </c>
-      <c r="AC206" s="17" t="s">
+      <c r="AC206" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD206" s="17" t="s">
+      <c r="AD206" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14805,29 +14808,29 @@
       <c r="B207" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" t="s">
         <v>63</v>
       </c>
-      <c r="D207" s="15">
+      <c r="D207">
         <v>7</v>
       </c>
-      <c r="E207" s="17" t="s">
+      <c r="E207" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F207" s="17">
+      <c r="F207" s="16">
         <v>2.89</v>
       </c>
-      <c r="G207" s="17">
+      <c r="G207" s="16">
         <v>1.49</v>
       </c>
-      <c r="H207" s="17">
+      <c r="H207" s="16">
         <v>0.18</v>
       </c>
-      <c r="I207" s="16">
+      <c r="I207" s="15">
         <f t="shared" si="0"/>
         <v>3.3820030314057519</v>
       </c>
-      <c r="J207" s="17">
+      <c r="J207" s="16">
         <v>0</v>
       </c>
       <c r="Y207" t="s">
@@ -14842,10 +14845,10 @@
       <c r="AB207" t="s">
         <v>105</v>
       </c>
-      <c r="AC207" s="17" t="s">
+      <c r="AC207" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD207" s="17" t="s">
+      <c r="AD207" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14856,29 +14859,29 @@
       <c r="B208" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" t="s">
         <v>63</v>
       </c>
-      <c r="D208" s="15">
+      <c r="D208">
         <v>8</v>
       </c>
-      <c r="E208" s="17" t="s">
+      <c r="E208" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F208" s="17">
+      <c r="F208" s="16">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G208" s="17">
+      <c r="G208" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H208" s="17">
+      <c r="H208" s="16">
         <v>0.23</v>
       </c>
-      <c r="I208" s="16">
+      <c r="I208" s="15">
         <f t="shared" si="0"/>
         <v>1.7537940988665022</v>
       </c>
-      <c r="J208" s="17">
+      <c r="J208" s="16">
         <v>0</v>
       </c>
       <c r="Y208" t="s">
@@ -14893,10 +14896,10 @@
       <c r="AB208" t="s">
         <v>105</v>
       </c>
-      <c r="AC208" s="17" t="s">
+      <c r="AC208" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD208" s="17" t="s">
+      <c r="AD208" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14907,29 +14910,29 @@
       <c r="B209" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" t="s">
         <v>63</v>
       </c>
-      <c r="D209" s="15">
+      <c r="D209">
         <v>9</v>
       </c>
-      <c r="E209" s="17" t="s">
+      <c r="E209" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F209" s="17">
+      <c r="F209" s="16">
         <v>1.22</v>
       </c>
-      <c r="G209" s="17">
+      <c r="G209" s="16">
         <v>0.51</v>
       </c>
-      <c r="H209" s="17">
+      <c r="H209" s="16">
         <v>0.13</v>
       </c>
-      <c r="I209" s="16">
+      <c r="I209" s="15">
         <f t="shared" si="0"/>
         <v>0.48867473726589228</v>
       </c>
-      <c r="J209" s="17">
+      <c r="J209" s="16">
         <v>0</v>
       </c>
       <c r="Y209" t="s">
@@ -14944,10 +14947,10 @@
       <c r="AB209" t="s">
         <v>105</v>
       </c>
-      <c r="AC209" s="17" t="s">
+      <c r="AC209" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD209" s="17" t="s">
+      <c r="AD209" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14958,29 +14961,29 @@
       <c r="B210" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D210" s="15">
+      <c r="D210">
         <v>10</v>
       </c>
-      <c r="E210" s="17" t="s">
+      <c r="E210" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F210" s="17">
+      <c r="F210" s="16">
         <v>4.32</v>
       </c>
-      <c r="G210" s="17">
+      <c r="G210" s="16">
         <v>1.37</v>
       </c>
-      <c r="H210" s="17">
+      <c r="H210" s="16">
         <v>0.36</v>
       </c>
-      <c r="I210" s="16">
+      <c r="I210" s="15">
         <f t="shared" si="0"/>
         <v>4.6483004902514589</v>
       </c>
-      <c r="J210" s="17">
+      <c r="J210" s="16">
         <v>0</v>
       </c>
       <c r="Y210" t="s">
@@ -14995,10 +14998,10 @@
       <c r="AB210" t="s">
         <v>105</v>
       </c>
-      <c r="AC210" s="17" t="s">
+      <c r="AC210" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD210" s="17" t="s">
+      <c r="AD210" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15009,29 +15012,29 @@
       <c r="B211" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211">
         <v>11</v>
       </c>
-      <c r="E211" s="17" t="s">
+      <c r="E211" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F211" s="17">
+      <c r="F211" s="16">
         <v>1.6</v>
       </c>
-      <c r="G211" s="17">
+      <c r="G211" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H211" s="17">
+      <c r="H211" s="16">
         <v>0.13</v>
       </c>
-      <c r="I211" s="16">
+      <c r="I211" s="15">
         <f t="shared" si="0"/>
         <v>0.70371675440411374</v>
       </c>
-      <c r="J211" s="17">
+      <c r="J211" s="16">
         <v>0</v>
       </c>
       <c r="Y211" t="s">
@@ -15046,10 +15049,10 @@
       <c r="AB211" t="s">
         <v>105</v>
       </c>
-      <c r="AC211" s="17" t="s">
+      <c r="AC211" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD211" s="17" t="s">
+      <c r="AD211" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15060,29 +15063,29 @@
       <c r="B212" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D212" s="15">
+      <c r="D212">
         <v>12</v>
       </c>
-      <c r="E212" s="17" t="s">
+      <c r="E212" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F212" s="17">
+      <c r="F212" s="16">
         <v>5.22</v>
       </c>
-      <c r="G212" s="17">
+      <c r="G212" s="16">
         <v>1.21</v>
       </c>
-      <c r="H212" s="17">
+      <c r="H212" s="16">
         <v>0.16</v>
       </c>
-      <c r="I212" s="16">
+      <c r="I212" s="15">
         <f t="shared" si="0"/>
         <v>4.9607318796509627</v>
       </c>
-      <c r="J212" s="17">
+      <c r="J212" s="16">
         <v>0</v>
       </c>
       <c r="Y212" t="s">
@@ -15097,10 +15100,10 @@
       <c r="AB212" t="s">
         <v>105</v>
       </c>
-      <c r="AC212" s="17" t="s">
+      <c r="AC212" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD212" s="17" t="s">
+      <c r="AD212" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15111,29 +15114,29 @@
       <c r="B213" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213">
         <v>13</v>
       </c>
-      <c r="E213" s="17" t="s">
+      <c r="E213" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F213" s="17">
+      <c r="F213" s="16">
         <v>3.06</v>
       </c>
-      <c r="G213" s="17">
+      <c r="G213" s="16">
         <v>1.31</v>
       </c>
-      <c r="H213" s="17">
+      <c r="H213" s="16">
         <v>0.31</v>
       </c>
-      <c r="I213" s="16">
+      <c r="I213" s="15">
         <f t="shared" si="0"/>
         <v>3.1483470777950116</v>
       </c>
-      <c r="J213" s="17">
+      <c r="J213" s="16">
         <v>0</v>
       </c>
       <c r="Y213" t="s">
@@ -15148,10 +15151,10 @@
       <c r="AB213" t="s">
         <v>105</v>
       </c>
-      <c r="AC213" s="17" t="s">
+      <c r="AC213" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD213" s="17" t="s">
+      <c r="AD213" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15162,29 +15165,29 @@
       <c r="B214" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214">
         <v>14</v>
       </c>
-      <c r="E214" s="17" t="s">
+      <c r="E214" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F214" s="17">
+      <c r="F214" s="16">
         <v>4.5199999999999996</v>
       </c>
-      <c r="G214" s="17">
+      <c r="G214" s="16">
         <v>1.75</v>
       </c>
-      <c r="H214" s="17">
+      <c r="H214" s="16">
         <v>0.1</v>
       </c>
-      <c r="I214" s="16">
+      <c r="I214" s="15">
         <f t="shared" si="0"/>
         <v>6.212499472473815</v>
       </c>
-      <c r="J214" s="17">
+      <c r="J214" s="16">
         <v>0</v>
       </c>
       <c r="Y214" t="s">
@@ -15199,10 +15202,10 @@
       <c r="AB214" t="s">
         <v>105</v>
       </c>
-      <c r="AC214" s="17" t="s">
+      <c r="AC214" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD214" s="17" t="s">
+      <c r="AD214" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15213,29 +15216,29 @@
       <c r="B215" s="14">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215">
         <v>15</v>
       </c>
-      <c r="E215" s="17" t="s">
+      <c r="E215" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F215" s="17">
+      <c r="F215" s="16">
         <v>3.15</v>
       </c>
-      <c r="G215" s="17">
+      <c r="G215" s="16">
         <v>0.27</v>
       </c>
-      <c r="H215" s="17">
+      <c r="H215" s="16">
         <v>0.11</v>
       </c>
-      <c r="I215" s="16">
+      <c r="I215" s="15">
         <f t="shared" si="0"/>
         <v>0.66798113796952974</v>
       </c>
-      <c r="J215" s="17">
+      <c r="J215" s="16">
         <v>0</v>
       </c>
       <c r="Y215" t="s">
@@ -15250,10 +15253,10 @@
       <c r="AB215" t="s">
         <v>105</v>
       </c>
-      <c r="AC215" s="17" t="s">
+      <c r="AC215" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AD215" s="17" t="s">
+      <c r="AD215" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15264,29 +15267,29 @@
       <c r="B216" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D216" s="15">
+      <c r="D216">
         <v>1</v>
       </c>
-      <c r="E216" s="17" t="s">
+      <c r="E216" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F216" s="17">
+      <c r="F216" s="16">
         <v>1.08</v>
       </c>
-      <c r="G216" s="17">
+      <c r="G216" s="16">
         <v>0.11</v>
       </c>
-      <c r="H216" s="17">
+      <c r="H216" s="16">
         <v>0.03</v>
       </c>
-      <c r="I216" s="16">
+      <c r="I216" s="15">
         <f t="shared" si="0"/>
         <v>9.3305301811616864E-2</v>
       </c>
-      <c r="J216" s="17">
+      <c r="J216" s="16">
         <v>0</v>
       </c>
       <c r="Y216" t="s">
@@ -15301,10 +15304,10 @@
       <c r="AB216" t="s">
         <v>109</v>
       </c>
-      <c r="AC216" s="17" t="s">
+      <c r="AC216" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD216" s="17" t="s">
+      <c r="AD216" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15315,29 +15318,29 @@
       <c r="B217" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217">
         <v>2</v>
       </c>
-      <c r="E217" s="17" t="s">
+      <c r="E217" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F217" s="17">
+      <c r="F217" s="16">
         <v>1</v>
       </c>
-      <c r="G217" s="17">
+      <c r="G217" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H217" s="17">
+      <c r="H217" s="16">
         <v>0.01</v>
       </c>
-      <c r="I217" s="16">
+      <c r="I217" s="15">
         <f t="shared" si="0"/>
         <v>5.4977871437821388E-2</v>
       </c>
-      <c r="J217" s="17">
+      <c r="J217" s="16">
         <v>0</v>
       </c>
       <c r="Y217" t="s">
@@ -15352,10 +15355,10 @@
       <c r="AB217" t="s">
         <v>109</v>
       </c>
-      <c r="AC217" s="17" t="s">
+      <c r="AC217" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD217" s="17" t="s">
+      <c r="AD217" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15366,29 +15369,29 @@
       <c r="B218" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218">
         <v>3</v>
       </c>
-      <c r="E218" s="17" t="s">
+      <c r="E218" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F218" s="17">
+      <c r="F218" s="16">
         <v>1.24</v>
       </c>
-      <c r="G218" s="17">
+      <c r="G218" s="16">
         <v>0.19</v>
       </c>
-      <c r="H218" s="17">
+      <c r="H218" s="16">
         <v>0.01</v>
       </c>
-      <c r="I218" s="16">
+      <c r="I218" s="15">
         <f t="shared" si="0"/>
         <v>0.18503980729643882</v>
       </c>
-      <c r="J218" s="17">
+      <c r="J218" s="16">
         <v>0</v>
       </c>
       <c r="Y218" t="s">
@@ -15403,10 +15406,10 @@
       <c r="AB218" t="s">
         <v>109</v>
       </c>
-      <c r="AC218" s="17" t="s">
+      <c r="AC218" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD218" s="17" t="s">
+      <c r="AD218" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15417,29 +15420,29 @@
       <c r="B219" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D219">
         <v>4</v>
       </c>
-      <c r="E219" s="17" t="s">
+      <c r="E219" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F219" s="17">
+      <c r="F219" s="16">
         <v>1.08</v>
       </c>
-      <c r="G219" s="17">
+      <c r="G219" s="16">
         <v>0.34</v>
       </c>
-      <c r="H219" s="17">
+      <c r="H219" s="16">
         <v>0.02</v>
       </c>
-      <c r="I219" s="16">
+      <c r="I219" s="15">
         <f t="shared" si="0"/>
         <v>0.28839820559954304</v>
       </c>
-      <c r="J219" s="17">
+      <c r="J219" s="16">
         <v>0</v>
       </c>
       <c r="Y219" t="s">
@@ -15454,10 +15457,10 @@
       <c r="AB219" t="s">
         <v>109</v>
       </c>
-      <c r="AC219" s="17" t="s">
+      <c r="AC219" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD219" s="17" t="s">
+      <c r="AD219" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15468,29 +15471,29 @@
       <c r="B220" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D220" s="15">
+      <c r="D220">
         <v>5</v>
       </c>
-      <c r="E220" s="17" t="s">
+      <c r="E220" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F220" s="17">
+      <c r="F220" s="16">
         <v>1.01</v>
       </c>
-      <c r="G220" s="17">
+      <c r="G220" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H220" s="17">
+      <c r="H220" s="16">
         <v>0.01</v>
       </c>
-      <c r="I220" s="16">
+      <c r="I220" s="15">
         <f t="shared" si="0"/>
         <v>0.11105530030439921</v>
       </c>
-      <c r="J220" s="17">
+      <c r="J220" s="16">
         <v>0</v>
       </c>
       <c r="Y220" t="s">
@@ -15505,10 +15508,10 @@
       <c r="AB220" t="s">
         <v>109</v>
       </c>
-      <c r="AC220" s="17" t="s">
+      <c r="AC220" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD220" s="17" t="s">
+      <c r="AD220" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15519,29 +15522,29 @@
       <c r="B221" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D221" s="15">
+      <c r="D221">
         <v>6</v>
       </c>
-      <c r="E221" s="17" t="s">
+      <c r="E221" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F221" s="17">
+      <c r="F221" s="16">
         <v>1</v>
       </c>
-      <c r="G221" s="17">
+      <c r="G221" s="16">
         <v>0.17</v>
       </c>
-      <c r="H221" s="17">
+      <c r="H221" s="16">
         <v>0.04</v>
       </c>
-      <c r="I221" s="16">
+      <c r="I221" s="15">
         <f t="shared" si="0"/>
         <v>0.13351768777756623</v>
       </c>
-      <c r="J221" s="17">
+      <c r="J221" s="16">
         <v>0</v>
       </c>
       <c r="Y221" t="s">
@@ -15556,10 +15559,10 @@
       <c r="AB221" t="s">
         <v>109</v>
       </c>
-      <c r="AC221" s="17" t="s">
+      <c r="AC221" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD221" s="17" t="s">
+      <c r="AD221" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15570,29 +15573,29 @@
       <c r="B222" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222">
         <v>7</v>
       </c>
-      <c r="E222" s="17" t="s">
+      <c r="E222" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F222" s="17">
+      <c r="F222" s="16">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G222" s="17">
+      <c r="G222" s="16">
         <v>0.2</v>
       </c>
-      <c r="H222" s="17">
+      <c r="H222" s="16">
         <v>0.06</v>
       </c>
-      <c r="I222" s="16">
+      <c r="I222" s="15">
         <f t="shared" si="0"/>
         <v>0.31887165433936399</v>
       </c>
-      <c r="J222" s="17">
+      <c r="J222" s="16">
         <v>0</v>
       </c>
       <c r="Y222" t="s">
@@ -15607,10 +15610,10 @@
       <c r="AB222" t="s">
         <v>109</v>
       </c>
-      <c r="AC222" s="17" t="s">
+      <c r="AC222" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD222" s="17" t="s">
+      <c r="AD222" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15621,29 +15624,29 @@
       <c r="B223" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223">
         <v>8</v>
       </c>
-      <c r="E223" s="17" t="s">
+      <c r="E223" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F223" s="17">
+      <c r="F223" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G223" s="17">
+      <c r="G223" s="16">
         <v>0.27</v>
       </c>
-      <c r="H223" s="17">
+      <c r="H223" s="16">
         <v>0.08</v>
       </c>
-      <c r="I223" s="16">
+      <c r="I223" s="15">
         <f t="shared" si="0"/>
         <v>0.23326325452904217</v>
       </c>
-      <c r="J223" s="17">
+      <c r="J223" s="16">
         <v>0</v>
       </c>
       <c r="Y223" t="s">
@@ -15658,10 +15661,10 @@
       <c r="AB223" t="s">
         <v>109</v>
       </c>
-      <c r="AC223" s="17" t="s">
+      <c r="AC223" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD223" s="17" t="s">
+      <c r="AD223" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15672,29 +15675,29 @@
       <c r="B224" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224">
         <v>9</v>
       </c>
-      <c r="E224" s="17" t="s">
+      <c r="E224" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F224" s="17">
+      <c r="F224" s="16">
         <v>1.07</v>
       </c>
-      <c r="G224" s="17">
+      <c r="G224" s="16">
         <v>0.33</v>
       </c>
-      <c r="H224" s="17">
+      <c r="H224" s="16">
         <v>0.06</v>
       </c>
-      <c r="I224" s="16">
+      <c r="I224" s="15">
         <f t="shared" si="0"/>
         <v>0.27732409149563902</v>
       </c>
-      <c r="J224" s="17">
+      <c r="J224" s="16">
         <v>0</v>
       </c>
       <c r="Y224" t="s">
@@ -15709,10 +15712,10 @@
       <c r="AB224" t="s">
         <v>109</v>
       </c>
-      <c r="AC224" s="17" t="s">
+      <c r="AC224" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD224" s="17" t="s">
+      <c r="AD224" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15723,29 +15726,29 @@
       <c r="B225" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225">
         <v>10</v>
       </c>
-      <c r="E225" s="17" t="s">
+      <c r="E225" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F225" s="17">
+      <c r="F225" s="16">
         <v>1.42</v>
       </c>
-      <c r="G225" s="17">
+      <c r="G225" s="16">
         <v>0.38</v>
       </c>
-      <c r="H225" s="17">
+      <c r="H225" s="16">
         <v>0.03</v>
       </c>
-      <c r="I225" s="16">
+      <c r="I225" s="15">
         <f t="shared" si="0"/>
         <v>0.42380084896926307</v>
       </c>
-      <c r="J225" s="17">
+      <c r="J225" s="16">
         <v>0</v>
       </c>
       <c r="Y225" t="s">
@@ -15760,10 +15763,10 @@
       <c r="AB225" t="s">
         <v>109</v>
       </c>
-      <c r="AC225" s="17" t="s">
+      <c r="AC225" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD225" s="17" t="s">
+      <c r="AD225" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15774,29 +15777,29 @@
       <c r="B226" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D226" s="15">
+      <c r="D226">
         <v>11</v>
       </c>
-      <c r="E226" s="17" t="s">
+      <c r="E226" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F226" s="17">
+      <c r="F226" s="16">
         <v>1.39</v>
       </c>
-      <c r="G226" s="17">
+      <c r="G226" s="16">
         <v>0.54</v>
       </c>
-      <c r="H226" s="17">
+      <c r="H226" s="16">
         <v>0.08</v>
       </c>
-      <c r="I226" s="16">
+      <c r="I226" s="15">
         <f t="shared" si="0"/>
         <v>0.58951986144612467</v>
       </c>
-      <c r="J226" s="17">
+      <c r="J226" s="16">
         <v>0</v>
       </c>
       <c r="Y226" t="s">
@@ -15811,10 +15814,10 @@
       <c r="AB226" t="s">
         <v>109</v>
       </c>
-      <c r="AC226" s="17" t="s">
+      <c r="AC226" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD226" s="17" t="s">
+      <c r="AD226" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15825,29 +15828,29 @@
       <c r="B227" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227">
         <v>12</v>
       </c>
-      <c r="E227" s="17" t="s">
+      <c r="E227" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F227" s="17">
+      <c r="F227" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G227" s="17">
+      <c r="G227" s="16">
         <v>0.24</v>
       </c>
-      <c r="H227" s="17">
+      <c r="H227" s="16">
         <v>0.04</v>
       </c>
-      <c r="I227" s="16">
+      <c r="I227" s="15">
         <f t="shared" si="0"/>
         <v>0.2148849375055418</v>
       </c>
-      <c r="J227" s="17">
+      <c r="J227" s="16">
         <v>0</v>
       </c>
       <c r="Y227" t="s">
@@ -15862,10 +15865,10 @@
       <c r="AB227" t="s">
         <v>109</v>
       </c>
-      <c r="AC227" s="17" t="s">
+      <c r="AC227" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD227" s="17" t="s">
+      <c r="AD227" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15876,29 +15879,29 @@
       <c r="B228" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D228" s="15">
+      <c r="D228">
         <v>13</v>
       </c>
-      <c r="E228" s="17" t="s">
+      <c r="E228" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F228" s="17">
+      <c r="F228" s="16">
         <v>1</v>
       </c>
-      <c r="G228" s="17">
+      <c r="G228" s="16">
         <v>0.42</v>
       </c>
-      <c r="H228" s="17">
+      <c r="H228" s="16">
         <v>0.06</v>
       </c>
-      <c r="I228" s="16">
+      <c r="I228" s="15">
         <f t="shared" si="0"/>
         <v>0.32986722862692824</v>
       </c>
-      <c r="J228" s="17">
+      <c r="J228" s="16">
         <v>0</v>
       </c>
       <c r="Y228" t="s">
@@ -15913,10 +15916,10 @@
       <c r="AB228" t="s">
         <v>109</v>
       </c>
-      <c r="AC228" s="17" t="s">
+      <c r="AC228" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD228" s="17" t="s">
+      <c r="AD228" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15927,29 +15930,29 @@
       <c r="B229" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D229">
         <v>14</v>
       </c>
-      <c r="E229" s="17" t="s">
+      <c r="E229" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F229" s="17">
+      <c r="F229" s="16">
         <v>1.24</v>
       </c>
-      <c r="G229" s="17">
+      <c r="G229" s="16">
         <v>0.21</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H229" s="16">
         <v>0.03</v>
       </c>
-      <c r="I229" s="16">
+      <c r="I229" s="15">
         <f t="shared" si="0"/>
         <v>0.2045176817486955</v>
       </c>
-      <c r="J229" s="17">
+      <c r="J229" s="16">
         <v>0</v>
       </c>
       <c r="Y229" t="s">
@@ -15964,10 +15967,10 @@
       <c r="AB229" t="s">
         <v>109</v>
       </c>
-      <c r="AC229" s="17" t="s">
+      <c r="AC229" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD229" s="17" t="s">
+      <c r="AD229" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15978,29 +15981,29 @@
       <c r="B230" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D230" s="15">
+      <c r="D230">
         <v>15</v>
       </c>
-      <c r="E230" s="17" t="s">
+      <c r="E230" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F230" s="17">
+      <c r="F230" s="16">
         <v>1.6</v>
       </c>
-      <c r="G230" s="17">
+      <c r="G230" s="16">
         <v>0.45</v>
       </c>
-      <c r="H230" s="17">
+      <c r="H230" s="16">
         <v>0.04</v>
       </c>
-      <c r="I230" s="16">
+      <c r="I230" s="15">
         <f t="shared" si="0"/>
         <v>0.56548667764616278</v>
       </c>
-      <c r="J230" s="17">
+      <c r="J230" s="16">
         <v>0</v>
       </c>
       <c r="Y230" t="s">
@@ -16015,10 +16018,10 @@
       <c r="AB230" t="s">
         <v>109</v>
       </c>
-      <c r="AC230" s="17" t="s">
+      <c r="AC230" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD230" s="17" t="s">
+      <c r="AD230" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16029,29 +16032,29 @@
       <c r="B231" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231">
         <v>16</v>
       </c>
-      <c r="E231" s="17" t="s">
+      <c r="E231" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F231" s="17">
+      <c r="F231" s="16">
         <v>1.59</v>
       </c>
-      <c r="G231" s="17">
+      <c r="G231" s="16">
         <v>0.46</v>
       </c>
-      <c r="H231" s="17">
+      <c r="H231" s="16">
         <v>0.05</v>
       </c>
-      <c r="I231" s="16">
+      <c r="I231" s="15">
         <f t="shared" si="0"/>
         <v>0.57444021670889367</v>
       </c>
-      <c r="J231" s="17">
+      <c r="J231" s="16">
         <v>0</v>
       </c>
       <c r="Y231" t="s">
@@ -16066,10 +16069,10 @@
       <c r="AB231" t="s">
         <v>109</v>
       </c>
-      <c r="AC231" s="17" t="s">
+      <c r="AC231" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD231" s="17" t="s">
+      <c r="AD231" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16080,29 +16083,29 @@
       <c r="B232" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232">
         <v>17</v>
       </c>
-      <c r="E232" s="17" t="s">
+      <c r="E232" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F232" s="17">
+      <c r="F232" s="16">
         <v>2.35</v>
       </c>
-      <c r="G232" s="17">
+      <c r="G232" s="16">
         <v>0.41</v>
       </c>
-      <c r="H232" s="17">
+      <c r="H232" s="16">
         <v>0.08</v>
       </c>
-      <c r="I232" s="16">
+      <c r="I232" s="15">
         <f t="shared" si="0"/>
         <v>0.75673113043344142</v>
       </c>
-      <c r="J232" s="17">
+      <c r="J232" s="16">
         <v>0</v>
       </c>
       <c r="Y232" t="s">
@@ -16117,10 +16120,10 @@
       <c r="AB232" t="s">
         <v>109</v>
       </c>
-      <c r="AC232" s="17" t="s">
+      <c r="AC232" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD232" s="17" t="s">
+      <c r="AD232" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16131,29 +16134,29 @@
       <c r="B233" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233">
         <v>18</v>
       </c>
-      <c r="E233" s="17" t="s">
+      <c r="E233" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F233" s="17">
+      <c r="F233" s="16">
         <v>1.03</v>
       </c>
-      <c r="G233" s="17">
+      <c r="G233" s="16">
         <v>0.46</v>
       </c>
-      <c r="H233" s="17">
+      <c r="H233" s="16">
         <v>0.09</v>
       </c>
-      <c r="I233" s="16">
+      <c r="I233" s="15">
         <f t="shared" si="0"/>
         <v>0.37212164981771106</v>
       </c>
-      <c r="J233" s="17">
+      <c r="J233" s="16">
         <v>0</v>
       </c>
       <c r="Y233" t="s">
@@ -16168,10 +16171,10 @@
       <c r="AB233" t="s">
         <v>109</v>
       </c>
-      <c r="AC233" s="17" t="s">
+      <c r="AC233" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD233" s="17" t="s">
+      <c r="AD233" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16182,29 +16185,29 @@
       <c r="B234" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234">
         <v>19</v>
       </c>
-      <c r="E234" s="17" t="s">
+      <c r="E234" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F234" s="17">
+      <c r="F234" s="16">
         <v>1.27</v>
       </c>
-      <c r="G234" s="17">
+      <c r="G234" s="16">
         <v>0.41</v>
       </c>
-      <c r="H234" s="17">
+      <c r="H234" s="16">
         <v>0.12</v>
       </c>
-      <c r="I234" s="16">
+      <c r="I234" s="15">
         <f t="shared" si="0"/>
         <v>0.4089568236810513</v>
       </c>
-      <c r="J234" s="17">
+      <c r="J234" s="16">
         <v>0</v>
       </c>
       <c r="Y234" t="s">
@@ -16219,10 +16222,10 @@
       <c r="AB234" t="s">
         <v>109</v>
       </c>
-      <c r="AC234" s="17" t="s">
+      <c r="AC234" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD234" s="17" t="s">
+      <c r="AD234" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16233,29 +16236,29 @@
       <c r="B235" s="14">
         <v>0.56180555555555556</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235">
         <v>20</v>
       </c>
-      <c r="E235" s="17" t="s">
+      <c r="E235" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F235" s="17">
+      <c r="F235" s="16">
         <v>1.35</v>
       </c>
-      <c r="G235" s="17">
+      <c r="G235" s="16">
         <v>0.89</v>
       </c>
-      <c r="H235" s="17">
+      <c r="H235" s="16">
         <v>0.15</v>
       </c>
-      <c r="I235" s="16">
+      <c r="I235" s="15">
         <f t="shared" si="0"/>
         <v>0.94365589332203414</v>
       </c>
-      <c r="J235" s="17">
+      <c r="J235" s="16">
         <v>0</v>
       </c>
       <c r="Y235" t="s">
@@ -16270,10 +16273,10 @@
       <c r="AB235" t="s">
         <v>109</v>
       </c>
-      <c r="AC235" s="17" t="s">
+      <c r="AC235" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD235" s="17" t="s">
+      <c r="AD235" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16284,29 +16287,29 @@
       <c r="B236" s="14">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236">
         <v>1</v>
       </c>
-      <c r="E236" s="17" t="s">
+      <c r="E236" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F236" s="17">
+      <c r="F236" s="16">
         <v>1.05</v>
       </c>
-      <c r="G236" s="17">
+      <c r="G236" s="16">
         <v>0.31</v>
       </c>
-      <c r="H236" s="17">
+      <c r="H236" s="16">
         <v>0.09</v>
       </c>
-      <c r="I236" s="16">
+      <c r="I236" s="15">
         <f t="shared" si="0"/>
         <v>0.25564710218586945</v>
       </c>
-      <c r="J236" s="17">
+      <c r="J236" s="16">
         <v>0</v>
       </c>
       <c r="Y236" t="s">
@@ -16321,10 +16324,10 @@
       <c r="AB236" t="s">
         <v>120</v>
       </c>
-      <c r="AC236" s="17" t="s">
+      <c r="AC236" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD236" s="17" t="s">
+      <c r="AD236" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16335,29 +16338,29 @@
       <c r="B237" s="14">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237">
         <v>2</v>
       </c>
-      <c r="E237" s="17" t="s">
+      <c r="E237" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F237" s="17">
+      <c r="F237" s="16">
         <v>1.31</v>
       </c>
-      <c r="G237" s="17">
+      <c r="G237" s="16">
         <v>0.19</v>
       </c>
-      <c r="H237" s="17">
+      <c r="H237" s="16">
         <v>0.05</v>
       </c>
-      <c r="I237" s="16">
+      <c r="I237" s="15">
         <f t="shared" si="0"/>
         <v>0.19548560286962488</v>
       </c>
-      <c r="J237" s="17">
+      <c r="J237" s="16">
         <v>0</v>
       </c>
       <c r="Y237" t="s">
@@ -16372,10 +16375,10 @@
       <c r="AB237" t="s">
         <v>120</v>
       </c>
-      <c r="AC237" s="17" t="s">
+      <c r="AC237" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD237" s="17" t="s">
+      <c r="AD237" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16389,26 +16392,26 @@
       <c r="C238" t="s">
         <v>43</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238">
         <v>3</v>
       </c>
-      <c r="E238" s="17" t="s">
+      <c r="E238" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F238" s="17">
+      <c r="F238" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G238" s="17">
+      <c r="G238" s="16">
         <v>0.26</v>
       </c>
-      <c r="H238" s="17">
+      <c r="H238" s="16">
         <v>0.03</v>
       </c>
-      <c r="I238" s="16">
+      <c r="I238" s="15">
         <f t="shared" si="0"/>
         <v>0.22462387473167023</v>
       </c>
-      <c r="J238" s="17">
+      <c r="J238" s="16">
         <v>0</v>
       </c>
       <c r="Y238" t="s">
@@ -16423,10 +16426,10 @@
       <c r="AB238" t="s">
         <v>120</v>
       </c>
-      <c r="AC238" s="17" t="s">
+      <c r="AC238" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD238" s="17" t="s">
+      <c r="AD238" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16440,26 +16443,26 @@
       <c r="C239" t="s">
         <v>43</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239">
         <v>4</v>
       </c>
-      <c r="E239" s="17" t="s">
+      <c r="E239" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F239" s="17">
+      <c r="F239" s="16">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G239" s="17">
+      <c r="G239" s="16">
         <v>0.3</v>
       </c>
-      <c r="H239" s="17">
+      <c r="H239" s="16">
         <v>0.01</v>
       </c>
-      <c r="I239" s="16">
+      <c r="I239" s="15">
         <f t="shared" si="0"/>
         <v>0.26389378290154264</v>
       </c>
-      <c r="J239" s="17">
+      <c r="J239" s="16">
         <v>0</v>
       </c>
       <c r="Y239" t="s">
@@ -16474,10 +16477,10 @@
       <c r="AB239" t="s">
         <v>120</v>
       </c>
-      <c r="AC239" s="17" t="s">
+      <c r="AC239" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD239" s="17" t="s">
+      <c r="AD239" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16485,32 +16488,32 @@
       <c r="A240" s="13">
         <v>44635</v>
       </c>
-      <c r="B240" s="19">
+      <c r="B240" s="18">
         <v>0.50902777777777775</v>
       </c>
       <c r="C240" t="s">
         <v>43</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240">
         <v>5</v>
       </c>
-      <c r="E240" s="17" t="s">
+      <c r="E240" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F240" s="17">
+      <c r="F240" s="16">
         <v>1.35</v>
       </c>
-      <c r="G240" s="17">
+      <c r="G240" s="16">
         <v>0.15</v>
       </c>
-      <c r="H240" s="17">
+      <c r="H240" s="16">
         <v>0.01</v>
       </c>
-      <c r="I240" s="16">
+      <c r="I240" s="15">
         <f t="shared" si="0"/>
         <v>0.15904312808798329</v>
       </c>
-      <c r="J240" s="17">
+      <c r="J240" s="16">
         <v>0</v>
       </c>
       <c r="Y240" t="s">
@@ -16525,10 +16528,10 @@
       <c r="AB240" t="s">
         <v>120</v>
       </c>
-      <c r="AC240" s="17" t="s">
+      <c r="AC240" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD240" s="17" t="s">
+      <c r="AD240" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16542,26 +16545,26 @@
       <c r="C241" t="s">
         <v>43</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241">
         <v>6</v>
       </c>
-      <c r="E241" s="17" t="s">
+      <c r="E241" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F241" s="17">
+      <c r="F241" s="16">
         <v>1.61</v>
       </c>
-      <c r="G241" s="17">
+      <c r="G241" s="16">
         <v>0.51</v>
       </c>
-      <c r="H241" s="17">
+      <c r="H241" s="16">
         <v>0.03</v>
       </c>
-      <c r="I241" s="16">
+      <c r="I241" s="15">
         <f t="shared" si="0"/>
         <v>0.64489043196564477</v>
       </c>
-      <c r="J241" s="17">
+      <c r="J241" s="16">
         <v>0</v>
       </c>
       <c r="Y241" t="s">
@@ -16576,10 +16579,10 @@
       <c r="AB241" t="s">
         <v>120</v>
       </c>
-      <c r="AC241" s="17" t="s">
+      <c r="AC241" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD241" s="17" t="s">
+      <c r="AD241" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16593,26 +16596,26 @@
       <c r="C242" t="s">
         <v>43</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242">
         <v>7</v>
       </c>
-      <c r="E242" s="17" t="s">
+      <c r="E242" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F242" s="17">
+      <c r="F242" s="16">
         <v>1.03</v>
       </c>
-      <c r="G242" s="17">
+      <c r="G242" s="16">
         <v>0.45</v>
       </c>
-      <c r="H242" s="17">
+      <c r="H242" s="16">
         <v>0.04</v>
       </c>
-      <c r="I242" s="16">
+      <c r="I242" s="15">
         <f t="shared" si="0"/>
         <v>0.36403204873471728</v>
       </c>
-      <c r="J242" s="17">
+      <c r="J242" s="16">
         <v>0</v>
       </c>
       <c r="Y242" t="s">
@@ -16627,10 +16630,10 @@
       <c r="AB242" t="s">
         <v>120</v>
       </c>
-      <c r="AC242" s="17" t="s">
+      <c r="AC242" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD242" s="17" t="s">
+      <c r="AD242" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16644,26 +16647,26 @@
       <c r="C243" t="s">
         <v>43</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243">
         <v>8</v>
       </c>
-      <c r="E243" s="17" t="s">
+      <c r="E243" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F243" s="17">
+      <c r="F243" s="16">
         <v>1.3</v>
       </c>
-      <c r="G243" s="17">
+      <c r="G243" s="16">
         <v>0.26</v>
       </c>
-      <c r="H243" s="17">
+      <c r="H243" s="16">
         <v>0.03</v>
       </c>
-      <c r="I243" s="16">
+      <c r="I243" s="15">
         <f t="shared" si="0"/>
         <v>0.26546457922833755</v>
       </c>
-      <c r="J243" s="17">
+      <c r="J243" s="16">
         <v>0</v>
       </c>
       <c r="Y243" t="s">
@@ -16678,10 +16681,10 @@
       <c r="AB243" t="s">
         <v>120</v>
       </c>
-      <c r="AC243" s="17" t="s">
+      <c r="AC243" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD243" s="17" t="s">
+      <c r="AD243" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16695,29 +16698,29 @@
       <c r="C244" t="s">
         <v>43</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244">
         <v>9</v>
       </c>
-      <c r="E244" s="17" t="s">
+      <c r="E244" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F244" s="17">
+      <c r="F244" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G244" s="17">
+      <c r="G244" s="16">
         <v>0.36</v>
       </c>
-      <c r="H244" s="17">
+      <c r="H244" s="16">
         <v>0.1</v>
       </c>
-      <c r="I244" s="16">
+      <c r="I244" s="15">
         <f t="shared" si="0"/>
         <v>0.32515483964654357</v>
       </c>
-      <c r="J244" s="17">
+      <c r="J244" s="16">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K244" s="17">
+      <c r="K244" s="16">
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="Y244" t="s">
@@ -16732,10 +16735,10 @@
       <c r="AB244" t="s">
         <v>120</v>
       </c>
-      <c r="AC244" s="17" t="s">
+      <c r="AC244" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD244" s="17" t="s">
+      <c r="AD244" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16749,26 +16752,26 @@
       <c r="C245" t="s">
         <v>43</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245">
         <v>10</v>
       </c>
-      <c r="E245" s="17" t="s">
+      <c r="E245" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F245" s="17">
+      <c r="F245" s="16">
         <v>1.22</v>
       </c>
-      <c r="G245" s="17">
+      <c r="G245" s="16">
         <v>0.18</v>
       </c>
-      <c r="H245" s="17">
+      <c r="H245" s="16">
         <v>0.05</v>
       </c>
-      <c r="I245" s="16">
+      <c r="I245" s="15">
         <f t="shared" si="0"/>
         <v>0.17247343668207962</v>
       </c>
-      <c r="J245" s="17">
+      <c r="J245" s="16">
         <v>0</v>
       </c>
       <c r="Y245" t="s">
@@ -16783,10 +16786,10 @@
       <c r="AB245" t="s">
         <v>120</v>
       </c>
-      <c r="AC245" s="17" t="s">
+      <c r="AC245" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD245" s="17" t="s">
+      <c r="AD245" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16800,26 +16803,26 @@
       <c r="C246" t="s">
         <v>43</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246">
         <v>11</v>
       </c>
-      <c r="E246" s="17" t="s">
+      <c r="E246" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F246" s="17">
+      <c r="F246" s="16">
         <v>1.08</v>
       </c>
-      <c r="G246" s="17">
+      <c r="G246" s="16">
         <v>0.33</v>
       </c>
-      <c r="H246" s="17">
+      <c r="H246" s="16">
         <v>0.05</v>
       </c>
-      <c r="I246" s="16">
+      <c r="I246" s="15">
         <f t="shared" si="0"/>
         <v>0.27991590543485062</v>
       </c>
-      <c r="J246" s="17">
+      <c r="J246" s="16">
         <v>0</v>
       </c>
       <c r="Y246" t="s">
@@ -16834,10 +16837,10 @@
       <c r="AB246" t="s">
         <v>120</v>
       </c>
-      <c r="AC246" s="17" t="s">
+      <c r="AC246" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD246" s="17" t="s">
+      <c r="AD246" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16851,26 +16854,26 @@
       <c r="C247" t="s">
         <v>43</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247">
         <v>12</v>
       </c>
-      <c r="E247" s="17" t="s">
+      <c r="E247" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F247" s="17">
+      <c r="F247" s="16">
         <v>1.33</v>
       </c>
-      <c r="G247" s="17">
+      <c r="G247" s="16">
         <v>0.22</v>
       </c>
-      <c r="H247" s="17">
+      <c r="H247" s="16">
         <v>0.02</v>
       </c>
-      <c r="I247" s="16">
+      <c r="I247" s="15">
         <f t="shared" si="0"/>
         <v>0.22980750261009339</v>
       </c>
-      <c r="J247" s="17">
+      <c r="J247" s="16">
         <v>0</v>
       </c>
       <c r="Y247" t="s">
@@ -16885,10 +16888,10 @@
       <c r="AB247" t="s">
         <v>120</v>
       </c>
-      <c r="AC247" s="17" t="s">
+      <c r="AC247" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD247" s="17" t="s">
+      <c r="AD247" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16902,26 +16905,26 @@
       <c r="C248" t="s">
         <v>43</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248">
         <v>13</v>
       </c>
-      <c r="E248" s="17" t="s">
+      <c r="E248" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F248" s="17">
+      <c r="F248" s="16">
         <v>1.85</v>
       </c>
-      <c r="G248" s="17">
+      <c r="G248" s="16">
         <v>0.43</v>
       </c>
-      <c r="H248" s="17">
+      <c r="H248" s="16">
         <v>0.13</v>
       </c>
-      <c r="I248" s="16">
+      <c r="I248" s="15">
         <f t="shared" si="0"/>
         <v>0.6247842389826701</v>
       </c>
-      <c r="J248" s="17">
+      <c r="J248" s="16">
         <v>0</v>
       </c>
       <c r="Y248" t="s">
@@ -16936,10 +16939,10 @@
       <c r="AB248" t="s">
         <v>120</v>
       </c>
-      <c r="AC248" s="17" t="s">
+      <c r="AC248" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD248" s="17" t="s">
+      <c r="AD248" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16953,26 +16956,26 @@
       <c r="C249" t="s">
         <v>43</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249">
         <v>14</v>
       </c>
-      <c r="E249" s="17" t="s">
+      <c r="E249" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F249" s="17">
+      <c r="F249" s="16">
         <v>1</v>
       </c>
-      <c r="G249" s="17">
+      <c r="G249" s="16">
         <v>0.48</v>
       </c>
-      <c r="H249" s="17">
+      <c r="H249" s="16">
         <v>0.05</v>
       </c>
-      <c r="I249" s="16">
+      <c r="I249" s="15">
         <f t="shared" si="0"/>
         <v>0.37699111843077515</v>
       </c>
-      <c r="J249" s="17">
+      <c r="J249" s="16">
         <v>0</v>
       </c>
       <c r="Y249" t="s">
@@ -16987,10 +16990,10 @@
       <c r="AB249" t="s">
         <v>120</v>
       </c>
-      <c r="AC249" s="17" t="s">
+      <c r="AC249" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD249" s="17" t="s">
+      <c r="AD249" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17004,26 +17007,26 @@
       <c r="C250" t="s">
         <v>43</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250">
         <v>15</v>
       </c>
-      <c r="E250" s="17" t="s">
+      <c r="E250" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F250" s="17">
+      <c r="F250" s="16">
         <v>1.22</v>
       </c>
-      <c r="G250" s="17">
+      <c r="G250" s="16">
         <v>0.25</v>
       </c>
-      <c r="H250" s="17">
+      <c r="H250" s="16">
         <v>0.03</v>
       </c>
-      <c r="I250" s="16">
+      <c r="I250" s="15">
         <f t="shared" si="0"/>
         <v>0.23954643983622173</v>
       </c>
-      <c r="J250" s="17">
+      <c r="J250" s="16">
         <v>0</v>
       </c>
       <c r="Y250" t="s">
@@ -17038,10 +17041,10 @@
       <c r="AB250" t="s">
         <v>120</v>
       </c>
-      <c r="AC250" s="17" t="s">
+      <c r="AC250" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD250" s="17" t="s">
+      <c r="AD250" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17055,26 +17058,26 @@
       <c r="C251" t="s">
         <v>43</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251">
         <v>16</v>
       </c>
-      <c r="E251" s="17" t="s">
+      <c r="E251" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F251" s="17">
+      <c r="F251" s="16">
         <v>1.24</v>
       </c>
-      <c r="G251" s="17">
+      <c r="G251" s="16">
         <v>0.95</v>
       </c>
-      <c r="H251" s="17">
+      <c r="H251" s="16">
         <v>0.25</v>
       </c>
-      <c r="I251" s="16">
+      <c r="I251" s="15">
         <f t="shared" si="0"/>
         <v>0.92519903648219404</v>
       </c>
-      <c r="J251" s="17">
+      <c r="J251" s="16">
         <v>0</v>
       </c>
       <c r="Y251" t="s">
@@ -17089,10 +17092,10 @@
       <c r="AB251" t="s">
         <v>116</v>
       </c>
-      <c r="AC251" s="17" t="s">
+      <c r="AC251" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD251" s="17" t="s">
+      <c r="AD251" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17106,26 +17109,26 @@
       <c r="C252" t="s">
         <v>43</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252">
         <v>17</v>
       </c>
-      <c r="E252" s="17" t="s">
+      <c r="E252" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F252" s="17">
+      <c r="F252" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G252" s="17">
+      <c r="G252" s="16">
         <v>0.54</v>
       </c>
-      <c r="H252" s="17">
+      <c r="H252" s="16">
         <v>0.22</v>
       </c>
-      <c r="I252" s="16">
+      <c r="I252" s="15">
         <f t="shared" si="0"/>
         <v>0.4834911093874692</v>
       </c>
-      <c r="J252" s="17">
+      <c r="J252" s="16">
         <v>0</v>
       </c>
       <c r="Y252" t="s">
@@ -17140,10 +17143,10 @@
       <c r="AB252" t="s">
         <v>116</v>
       </c>
-      <c r="AC252" s="17" t="s">
+      <c r="AC252" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD252" s="17" t="s">
+      <c r="AD252" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17157,26 +17160,26 @@
       <c r="C253" t="s">
         <v>43</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253">
         <v>18</v>
       </c>
-      <c r="E253" s="17" t="s">
+      <c r="E253" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F253" s="17">
+      <c r="F253" s="16">
         <v>1.06</v>
       </c>
-      <c r="G253" s="17">
+      <c r="G253" s="16">
         <v>0.26</v>
       </c>
-      <c r="H253" s="17">
+      <c r="H253" s="16">
         <v>0.09</v>
       </c>
-      <c r="I253" s="16">
+      <c r="I253" s="15">
         <f t="shared" si="0"/>
         <v>0.21645573383233677</v>
       </c>
-      <c r="J253" s="17">
+      <c r="J253" s="16">
         <v>0</v>
       </c>
       <c r="Y253" t="s">
@@ -17191,10 +17194,10 @@
       <c r="AB253" t="s">
         <v>116</v>
       </c>
-      <c r="AC253" s="17" t="s">
+      <c r="AC253" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD253" s="17" t="s">
+      <c r="AD253" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17208,26 +17211,26 @@
       <c r="C254" t="s">
         <v>43</v>
       </c>
-      <c r="D254" s="15">
+      <c r="D254">
         <v>19</v>
       </c>
-      <c r="E254" s="17" t="s">
+      <c r="E254" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F254" s="17">
+      <c r="F254" s="16">
         <v>1.7</v>
       </c>
-      <c r="G254" s="17">
+      <c r="G254" s="16">
         <v>0.4</v>
       </c>
-      <c r="H254" s="17">
+      <c r="H254" s="16">
         <v>0.1</v>
       </c>
-      <c r="I254" s="16">
+      <c r="I254" s="15">
         <f t="shared" si="0"/>
         <v>0.53407075111026492</v>
       </c>
-      <c r="J254" s="17">
+      <c r="J254" s="16">
         <v>0</v>
       </c>
       <c r="Y254" t="s">
@@ -17242,10 +17245,10 @@
       <c r="AB254" t="s">
         <v>116</v>
       </c>
-      <c r="AC254" s="17" t="s">
+      <c r="AC254" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD254" s="17" t="s">
+      <c r="AD254" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17259,26 +17262,26 @@
       <c r="C255" t="s">
         <v>43</v>
       </c>
-      <c r="D255" s="15">
+      <c r="D255">
         <v>20</v>
       </c>
-      <c r="E255" s="17" t="s">
+      <c r="E255" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F255" s="17">
+      <c r="F255" s="16">
         <v>1.02</v>
       </c>
-      <c r="G255" s="17">
+      <c r="G255" s="16">
         <v>0.37</v>
       </c>
-      <c r="H255" s="17">
+      <c r="H255" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I255" s="16">
+      <c r="I255" s="15">
         <f t="shared" si="0"/>
         <v>0.29640926686619701</v>
       </c>
-      <c r="J255" s="17">
+      <c r="J255" s="16">
         <v>0</v>
       </c>
       <c r="Y255" t="s">
@@ -17293,10 +17296,10 @@
       <c r="AB255" t="s">
         <v>116</v>
       </c>
-      <c r="AC255" s="17" t="s">
+      <c r="AC255" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD255" s="17" t="s">
+      <c r="AD255" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -17310,26 +17313,26 @@
       <c r="C256" t="s">
         <v>53</v>
       </c>
-      <c r="D256" s="15">
+      <c r="D256">
         <v>1</v>
       </c>
-      <c r="E256" s="17" t="s">
+      <c r="E256" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F256" s="17">
+      <c r="F256" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G256" s="17">
+      <c r="G256" s="16">
         <v>0.42</v>
       </c>
-      <c r="H256" s="17">
+      <c r="H256" s="16">
         <v>0.13</v>
       </c>
-      <c r="I256" s="16">
+      <c r="I256" s="15">
         <f t="shared" si="0"/>
         <v>0.36285395148962113</v>
       </c>
-      <c r="J256" s="17">
+      <c r="J256" s="16">
         <v>0</v>
       </c>
       <c r="Y256" t="s">
@@ -17344,10 +17347,10 @@
       <c r="AB256" t="s">
         <v>128</v>
       </c>
-      <c r="AC256" s="17" t="s">
+      <c r="AC256" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD256" s="17" t="s">
+      <c r="AD256" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17358,29 +17361,29 @@
       <c r="B257" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D257" s="15">
+      <c r="D257">
         <v>2</v>
       </c>
-      <c r="E257" s="17" t="s">
+      <c r="E257" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F257">
         <v>1.51</v>
       </c>
-      <c r="G257" s="17">
+      <c r="G257" s="16">
         <v>0.44</v>
       </c>
-      <c r="H257" s="17">
+      <c r="H257" s="16">
         <v>0.09</v>
       </c>
-      <c r="I257" s="16">
+      <c r="I257" s="15">
         <f t="shared" ref="I257:I275" si="7">(F257/2)*(G257/2)*(PI())</f>
         <v>0.52181853976126458</v>
       </c>
-      <c r="J257" s="17">
+      <c r="J257" s="16">
         <v>0</v>
       </c>
       <c r="Y257" t="s">
@@ -17395,10 +17398,10 @@
       <c r="AB257" t="s">
         <v>128</v>
       </c>
-      <c r="AC257" s="17" t="s">
+      <c r="AC257" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD257" s="17" t="s">
+      <c r="AD257" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17409,29 +17412,29 @@
       <c r="B258" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258">
         <v>3</v>
       </c>
-      <c r="E258" s="17" t="s">
+      <c r="E258" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F258">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G258" s="17">
+      <c r="G258" s="16">
         <v>0.24</v>
       </c>
-      <c r="H258" s="17">
+      <c r="H258" s="16">
         <v>0.13</v>
       </c>
-      <c r="I258" s="16">
+      <c r="I258" s="15">
         <f t="shared" si="7"/>
         <v>0.2148849375055418</v>
       </c>
-      <c r="J258" s="17">
+      <c r="J258" s="16">
         <v>0</v>
       </c>
       <c r="Y258" t="s">
@@ -17446,10 +17449,10 @@
       <c r="AB258" t="s">
         <v>128</v>
       </c>
-      <c r="AC258" s="17" t="s">
+      <c r="AC258" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD258" s="17" t="s">
+      <c r="AD258" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17460,29 +17463,29 @@
       <c r="B259" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D259" s="15">
+      <c r="D259">
         <v>4</v>
       </c>
-      <c r="E259" s="17" t="s">
+      <c r="E259" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F259">
         <v>1.47</v>
       </c>
-      <c r="G259" s="17">
+      <c r="G259" s="16">
         <v>0.59</v>
       </c>
-      <c r="H259" s="17">
+      <c r="H259" s="16">
         <v>0.17</v>
       </c>
-      <c r="I259" s="16">
+      <c r="I259" s="15">
         <f t="shared" si="7"/>
         <v>0.68117582711460689</v>
       </c>
-      <c r="J259" s="17">
+      <c r="J259" s="16">
         <v>0</v>
       </c>
       <c r="Y259" t="s">
@@ -17497,10 +17500,10 @@
       <c r="AB259" t="s">
         <v>128</v>
       </c>
-      <c r="AC259" s="17" t="s">
+      <c r="AC259" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD259" s="17" t="s">
+      <c r="AD259" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17511,29 +17514,29 @@
       <c r="B260" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D260" s="15">
+      <c r="D260">
         <v>5</v>
       </c>
-      <c r="E260" s="17" t="s">
+      <c r="E260" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F260">
         <v>1.65</v>
       </c>
-      <c r="G260" s="17">
+      <c r="G260" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H260" s="17">
+      <c r="H260" s="16">
         <v>0.15</v>
       </c>
-      <c r="I260" s="16">
+      <c r="I260" s="15">
         <f t="shared" si="7"/>
         <v>0.71274883328318428</v>
       </c>
-      <c r="J260" s="17">
+      <c r="J260" s="16">
         <v>0</v>
       </c>
       <c r="Y260" t="s">
@@ -17545,13 +17548,13 @@
       <c r="AA260" t="s">
         <v>127</v>
       </c>
-      <c r="AB260" s="17" t="s">
+      <c r="AB260" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AC260" s="17" t="s">
+      <c r="AC260" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD260" s="17" t="s">
+      <c r="AD260" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17562,29 +17565,29 @@
       <c r="B261" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D261" s="15">
+      <c r="D261">
         <v>6</v>
       </c>
-      <c r="E261" s="17" t="s">
+      <c r="E261" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F261">
         <v>3.62</v>
       </c>
-      <c r="G261" s="17">
+      <c r="G261" s="16">
         <v>1.91</v>
       </c>
-      <c r="H261" s="17">
+      <c r="H261" s="16">
         <v>0.33</v>
       </c>
-      <c r="I261" s="16">
+      <c r="I261" s="15">
         <f t="shared" si="7"/>
         <v>5.4303999813626369</v>
       </c>
-      <c r="J261" s="17">
+      <c r="J261" s="16">
         <v>0</v>
       </c>
       <c r="Y261" t="s">
@@ -17599,10 +17602,10 @@
       <c r="AB261" t="s">
         <v>128</v>
       </c>
-      <c r="AC261" s="17" t="s">
+      <c r="AC261" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD261" s="17" t="s">
+      <c r="AD261" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17613,29 +17616,29 @@
       <c r="B262" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262">
         <v>7</v>
       </c>
-      <c r="E262" s="17" t="s">
+      <c r="E262" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F262">
         <v>1.49</v>
       </c>
-      <c r="G262" s="17">
+      <c r="G262" s="16">
         <v>1.05</v>
       </c>
-      <c r="H262" s="17">
+      <c r="H262" s="16">
         <v>0.18</v>
       </c>
-      <c r="I262" s="16">
+      <c r="I262" s="15">
         <f t="shared" si="7"/>
         <v>1.2287554266353078</v>
       </c>
-      <c r="J262" s="17">
+      <c r="J262" s="16">
         <v>0</v>
       </c>
       <c r="Y262" t="s">
@@ -17650,10 +17653,10 @@
       <c r="AB262" t="s">
         <v>128</v>
       </c>
-      <c r="AC262" s="17" t="s">
+      <c r="AC262" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD262" s="17" t="s">
+      <c r="AD262" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17664,29 +17667,29 @@
       <c r="B263" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D263" s="15">
+      <c r="D263">
         <v>8</v>
       </c>
-      <c r="E263" s="17" t="s">
+      <c r="E263" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F263">
         <v>1.29</v>
       </c>
-      <c r="G263" s="17">
+      <c r="G263" s="16">
         <v>0.8</v>
       </c>
-      <c r="H263" s="17">
+      <c r="H263" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I263" s="16">
+      <c r="I263" s="15">
         <f t="shared" si="7"/>
         <v>0.81053090462616662</v>
       </c>
-      <c r="J263" s="17">
+      <c r="J263" s="16">
         <v>0</v>
       </c>
       <c r="Y263" t="s">
@@ -17701,10 +17704,10 @@
       <c r="AB263" t="s">
         <v>128</v>
       </c>
-      <c r="AC263" s="17" t="s">
+      <c r="AC263" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD263" s="17" t="s">
+      <c r="AD263" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17715,29 +17718,29 @@
       <c r="B264" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D264" s="15">
+      <c r="D264">
         <v>9</v>
       </c>
-      <c r="E264" s="17" t="s">
+      <c r="E264" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F264">
         <v>2.38</v>
       </c>
-      <c r="G264" s="17">
+      <c r="G264" s="16">
         <v>0.81</v>
       </c>
-      <c r="H264" s="17">
+      <c r="H264" s="16">
         <v>0.16</v>
       </c>
-      <c r="I264" s="16">
+      <c r="I264" s="15">
         <f t="shared" si="7"/>
         <v>1.5140905793976007</v>
       </c>
-      <c r="J264" s="17">
+      <c r="J264" s="16">
         <v>0</v>
       </c>
       <c r="Y264" t="s">
@@ -17752,10 +17755,10 @@
       <c r="AB264" t="s">
         <v>128</v>
       </c>
-      <c r="AC264" s="17" t="s">
+      <c r="AC264" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD264" s="17" t="s">
+      <c r="AD264" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17766,29 +17769,29 @@
       <c r="B265" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265">
         <v>10</v>
       </c>
-      <c r="E265" s="17" t="s">
+      <c r="E265" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F265">
         <v>1.51</v>
       </c>
-      <c r="G265" s="17">
+      <c r="G265" s="16">
         <v>0.51</v>
       </c>
-      <c r="H265" s="17">
+      <c r="H265" s="16">
         <v>0.09</v>
       </c>
-      <c r="I265" s="16">
+      <c r="I265" s="15">
         <f t="shared" si="7"/>
         <v>0.60483512563237496</v>
       </c>
-      <c r="J265" s="17">
+      <c r="J265" s="16">
         <v>0</v>
       </c>
       <c r="Y265" t="s">
@@ -17803,10 +17806,10 @@
       <c r="AB265" t="s">
         <v>128</v>
       </c>
-      <c r="AC265" s="17" t="s">
+      <c r="AC265" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD265" s="17" t="s">
+      <c r="AD265" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17817,29 +17820,29 @@
       <c r="B266" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D266" s="15">
+      <c r="D266">
         <v>11</v>
       </c>
-      <c r="E266" s="17" t="s">
+      <c r="E266" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F266">
         <v>1.22</v>
       </c>
-      <c r="G266" s="17">
+      <c r="G266" s="16">
         <v>0.65</v>
       </c>
-      <c r="H266" s="17">
+      <c r="H266" s="16">
         <v>0.11</v>
       </c>
-      <c r="I266" s="16">
+      <c r="I266" s="15">
         <f t="shared" si="7"/>
         <v>0.62282074357417649</v>
       </c>
-      <c r="J266" s="17">
+      <c r="J266" s="16">
         <v>0</v>
       </c>
       <c r="Y266" t="s">
@@ -17854,10 +17857,10 @@
       <c r="AB266" t="s">
         <v>128</v>
       </c>
-      <c r="AC266" s="17" t="s">
+      <c r="AC266" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD266" s="17" t="s">
+      <c r="AD266" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17868,29 +17871,29 @@
       <c r="B267" s="14">
         <v>0.46875</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D267" s="15">
+      <c r="D267">
         <v>12</v>
       </c>
-      <c r="E267" s="17" t="s">
+      <c r="E267" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F267">
         <v>1.45</v>
       </c>
-      <c r="G267" s="17">
+      <c r="G267" s="16">
         <v>0.65</v>
       </c>
-      <c r="H267" s="17">
+      <c r="H267" s="16">
         <v>0.26</v>
       </c>
-      <c r="I267" s="16">
+      <c r="I267" s="15">
         <f t="shared" si="7"/>
         <v>0.74023776900209504</v>
       </c>
-      <c r="J267" s="17">
+      <c r="J267" s="16">
         <v>0</v>
       </c>
       <c r="Y267" t="s">
@@ -17905,10 +17908,10 @@
       <c r="AB267" t="s">
         <v>128</v>
       </c>
-      <c r="AC267" s="17" t="s">
+      <c r="AC267" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD267" s="17" t="s">
+      <c r="AD267" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17919,29 +17922,29 @@
       <c r="B268" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268">
         <v>13</v>
       </c>
-      <c r="E268" s="17" t="s">
+      <c r="E268" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F268">
         <v>4.05</v>
       </c>
-      <c r="G268" s="17">
+      <c r="G268" s="16">
         <v>3.19</v>
       </c>
-      <c r="H268" s="17">
+      <c r="H268" s="16">
         <v>0.42</v>
       </c>
-      <c r="I268" s="16">
+      <c r="I268" s="15">
         <f t="shared" si="7"/>
         <v>10.146951572013332</v>
       </c>
-      <c r="J268" s="17">
+      <c r="J268" s="16">
         <v>0</v>
       </c>
       <c r="Y268" t="s">
@@ -17956,10 +17959,10 @@
       <c r="AB268" t="s">
         <v>125</v>
       </c>
-      <c r="AC268" s="17" t="s">
+      <c r="AC268" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD268" s="17" t="s">
+      <c r="AD268" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17967,32 +17970,32 @@
       <c r="A269" s="13">
         <v>44634</v>
       </c>
-      <c r="B269" s="19">
+      <c r="B269" s="18">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269">
         <v>14</v>
       </c>
-      <c r="E269" s="17" t="s">
+      <c r="E269" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F269">
         <v>2.46</v>
       </c>
-      <c r="G269" s="17">
+      <c r="G269" s="16">
         <v>1.21</v>
       </c>
-      <c r="H269" s="17">
+      <c r="H269" s="16">
         <v>0.37</v>
       </c>
-      <c r="I269" s="16">
+      <c r="I269" s="15">
         <f t="shared" si="7"/>
         <v>2.3378161731688443</v>
       </c>
-      <c r="J269" s="17">
+      <c r="J269" s="16">
         <v>0</v>
       </c>
       <c r="Y269" t="s">
@@ -18007,10 +18010,10 @@
       <c r="AB269" t="s">
         <v>125</v>
       </c>
-      <c r="AC269" s="17" t="s">
+      <c r="AC269" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD269" s="17" t="s">
+      <c r="AD269" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18018,32 +18021,32 @@
       <c r="A270" s="13">
         <v>44634</v>
       </c>
-      <c r="B270" s="18">
+      <c r="B270" s="17">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270">
         <v>15</v>
       </c>
-      <c r="E270" s="17" t="s">
+      <c r="E270" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F270">
         <v>2.17</v>
       </c>
-      <c r="G270" s="17">
+      <c r="G270" s="16">
         <v>2.04</v>
       </c>
-      <c r="H270" s="17">
+      <c r="H270" s="16">
         <v>0.27</v>
       </c>
-      <c r="I270" s="16">
+      <c r="I270" s="15">
         <f t="shared" si="7"/>
         <v>3.4768005897278242</v>
       </c>
-      <c r="J270" s="17">
+      <c r="J270" s="16">
         <v>0</v>
       </c>
       <c r="Y270" t="s">
@@ -18058,10 +18061,10 @@
       <c r="AB270" t="s">
         <v>125</v>
       </c>
-      <c r="AC270" s="17" t="s">
+      <c r="AC270" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD270" s="17" t="s">
+      <c r="AD270" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18072,29 +18075,29 @@
       <c r="B271" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271">
         <v>16</v>
       </c>
-      <c r="E271" s="17" t="s">
+      <c r="E271" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F271">
         <v>1.51</v>
       </c>
-      <c r="G271" s="17">
+      <c r="G271" s="16">
         <v>0.72</v>
       </c>
-      <c r="H271" s="17">
+      <c r="H271" s="16">
         <v>0.17</v>
       </c>
-      <c r="I271" s="16">
+      <c r="I271" s="15">
         <f t="shared" si="7"/>
         <v>0.85388488324570577</v>
       </c>
-      <c r="J271" s="17">
+      <c r="J271" s="16">
         <v>0</v>
       </c>
       <c r="Y271" t="s">
@@ -18109,10 +18112,10 @@
       <c r="AB271" t="s">
         <v>125</v>
       </c>
-      <c r="AC271" s="17" t="s">
+      <c r="AC271" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD271" s="17" t="s">
+      <c r="AD271" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18123,29 +18126,29 @@
       <c r="B272" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D272" s="15">
+      <c r="D272">
         <v>17</v>
       </c>
-      <c r="E272" s="17" t="s">
+      <c r="E272" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F272">
         <v>4.1100000000000003</v>
       </c>
-      <c r="G272" s="17">
+      <c r="G272" s="16">
         <v>1.25</v>
       </c>
-      <c r="H272" s="17">
+      <c r="H272" s="16">
         <v>0.38</v>
       </c>
-      <c r="I272" s="16">
+      <c r="I272" s="15">
         <f t="shared" si="7"/>
         <v>4.0349830644543907</v>
       </c>
-      <c r="J272" s="17">
+      <c r="J272" s="16">
         <v>0</v>
       </c>
       <c r="Y272" t="s">
@@ -18160,10 +18163,10 @@
       <c r="AB272" t="s">
         <v>125</v>
       </c>
-      <c r="AC272" s="17" t="s">
+      <c r="AC272" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD272" s="17" t="s">
+      <c r="AD272" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18174,29 +18177,29 @@
       <c r="B273" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273">
         <v>18</v>
       </c>
-      <c r="E273" s="17" t="s">
+      <c r="E273" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F273">
         <v>1.59</v>
       </c>
-      <c r="G273" s="17">
+      <c r="G273" s="16">
         <v>0.85</v>
       </c>
-      <c r="H273" s="17">
+      <c r="H273" s="16">
         <v>0.34</v>
       </c>
-      <c r="I273" s="16">
+      <c r="I273" s="15">
         <f t="shared" si="7"/>
         <v>1.0614656178316513</v>
       </c>
-      <c r="J273" s="17">
+      <c r="J273" s="16">
         <v>0</v>
       </c>
       <c r="Y273" t="s">
@@ -18211,10 +18214,10 @@
       <c r="AB273" t="s">
         <v>125</v>
       </c>
-      <c r="AC273" s="17" t="s">
+      <c r="AC273" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD273" s="17" t="s">
+      <c r="AD273" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18225,29 +18228,29 @@
       <c r="B274" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274">
         <v>19</v>
       </c>
-      <c r="E274" s="17" t="s">
+      <c r="E274" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F274">
         <v>1.76</v>
       </c>
-      <c r="G274" s="17">
+      <c r="G274" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H274" s="17">
+      <c r="H274" s="16">
         <v>0.1</v>
       </c>
-      <c r="I274" s="16">
+      <c r="I274" s="15">
         <f t="shared" si="7"/>
         <v>0.76026542216873005</v>
       </c>
-      <c r="J274" s="17">
+      <c r="J274" s="16">
         <v>0</v>
       </c>
       <c r="Y274" t="s">
@@ -18262,10 +18265,10 @@
       <c r="AB274" t="s">
         <v>125</v>
       </c>
-      <c r="AC274" s="17" t="s">
+      <c r="AC274" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD274" s="17" t="s">
+      <c r="AD274" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18276,29 +18279,29 @@
       <c r="B275" s="14">
         <v>0.48819444444444443</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D275" s="15">
+      <c r="D275">
         <v>20</v>
       </c>
-      <c r="E275" s="17" t="s">
+      <c r="E275" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F275">
         <v>3.19</v>
       </c>
-      <c r="G275" s="17">
+      <c r="G275" s="16">
         <v>1.5</v>
       </c>
-      <c r="H275" s="17">
+      <c r="H275" s="16">
         <v>0.66</v>
       </c>
-      <c r="I275" s="16">
+      <c r="I275" s="15">
         <f t="shared" si="7"/>
         <v>3.7581302118567903</v>
       </c>
-      <c r="J275" s="17">
+      <c r="J275" s="16">
         <v>0</v>
       </c>
       <c r="Y275" t="s">
@@ -18313,10 +18316,10 @@
       <c r="AB275" t="s">
         <v>125</v>
       </c>
-      <c r="AC275" s="17" t="s">
+      <c r="AC275" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AD275" s="17" t="s">
+      <c r="AD275" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -19054,18 +19057,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19201,14 +19204,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862A3663-8BA7-4B41-AC42-671415024BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5936F303-DFF0-4E1C-9418-608ECE61AA7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -19220,6 +19215,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862A3663-8BA7-4B41-AC42-671415024BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
